--- a/Thesis/z1.xlsx
+++ b/Thesis/z1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\college_works\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166A76E0-873E-4799-BA18-DA58B7B7ABCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C8DB71-AE8F-4983-847F-5B6B964F5CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,947 +437,947 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.32107680924157628</v>
+        <v>0.31899143929638663</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.40598116307355819</v>
+        <v>0.40492417780771162</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.34660010694432009</v>
+        <v>0.34087091948027898</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.40890507920740837</v>
+        <v>0.40503280784729512</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.48909466267037099</v>
+        <v>0.49014697108673599</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.37992170057000652</v>
+        <v>0.37808933260191391</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.40538486728964768</v>
+        <v>0.40571146982902168</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.38309225520097873</v>
+        <v>0.38438181712624858</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.37142211140832798</v>
+        <v>0.37087252731769782</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.43671447249502587</v>
+        <v>0.43700170016330009</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.41162085509461799</v>
+        <v>0.40966999966063039</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.42415018221561179</v>
+        <v>0.41988964717816968</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.39098381673521321</v>
+        <v>0.3910765813949173</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.40995492767279129</v>
+        <v>0.41027465205365737</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.48177093121094011</v>
+        <v>0.47834084074104383</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.45990648694531783</v>
+        <v>0.45359276799495818</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.39259581868061721</v>
+        <v>0.38622797913200968</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.36500289823034732</v>
+        <v>0.36426714541638278</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.39681151654184171</v>
+        <v>0.39620102258784862</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.36656284954909951</v>
+        <v>0.35857462446723321</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.32726961308067148</v>
+        <v>0.32678785938748062</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.3590150435458504</v>
+        <v>0.36243450606735811</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.36608289661578208</v>
+        <v>0.36257367607128599</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.38468371628812742</v>
+        <v>0.37871427447097089</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.36134390025293373</v>
+        <v>0.35493442086852472</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.3955451844263918</v>
+        <v>0.39193434013497352</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>0.35365970662338908</v>
+        <v>0.34826777310758539</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0.33482161868688193</v>
+        <v>0.34800051668251242</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>0.24523807550165699</v>
+        <v>0.24319466205764051</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0.22984162286814661</v>
+        <v>0.22330358194570021</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0.24336000363401519</v>
+        <v>0.2395360309078767</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.29948137418700221</v>
+        <v>0.30023701666840841</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.19952103029092749</v>
+        <v>0.19706396494320119</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.28637968715934969</v>
+        <v>0.2851893377997593</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0.21383847942663339</v>
+        <v>0.21293309614897171</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0.24755968247333321</v>
+        <v>0.24732071461030411</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0.1736355775027387</v>
+        <v>0.17407946172743111</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0.18156624167991151</v>
+        <v>0.17743548550129409</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0.2470639567896416</v>
+        <v>0.24004215799030101</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.25624033578041883</v>
+        <v>0.25527456871105342</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>0.22600360599395611</v>
+        <v>0.22502985538324791</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0.1994355472471358</v>
+        <v>0.19458725182418049</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0.27973340854214102</v>
+        <v>0.27151169156221477</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>0.21025872788034169</v>
+        <v>0.20233609029635041</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>0.22665914630861669</v>
+        <v>0.22599572892650621</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>0.2175346472452146</v>
+        <v>0.2165137814458378</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>0.22142695167259699</v>
+        <v>0.21320580998616451</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>0.2090926649453046</v>
+        <v>0.2098972758840934</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>0.24615185238006229</v>
+        <v>0.25036926719181363</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>0.26124754776128828</v>
+        <v>0.25784169665902718</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>0.25231531715312189</v>
+        <v>0.24890381361039041</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>0.25168278511619929</v>
+        <v>0.2445184437977618</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>0.2488682392919486</v>
+        <v>0.24241672682876911</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>0.18339878172368609</v>
+        <v>0.1787875024368375</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>0.2201895144361263</v>
+        <v>0.23219339148192639</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>0.1232634844081839</v>
+        <v>0.1234722423135718</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>3.6495654674679412E-2</v>
+        <v>2.9178849689201179E-2</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>5.5423506836874463E-2</v>
+        <v>4.5194704790540448E-2</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>0.1186835935885779</v>
+        <v>0.1217414988847498</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>2.1775854024824241E-2</v>
+        <v>2.090022343277163E-2</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>0.10518942893027471</v>
+        <v>0.10259747316270849</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>1.898393605057291E-2</v>
+        <v>1.947987741679388E-2</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>-9.7918681034544652E-2</v>
+        <v>-9.6806800894041076E-2</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>-7.9751699306098892E-2</v>
+        <v>-7.9357701736520209E-2</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>-2.9040795171247729E-2</v>
+        <v>-3.1480378485477793E-2</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>3.7631406871740797E-2</v>
+        <v>1.6604935072551771E-2</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>-4.280010205865184E-2</v>
+        <v>-4.3490138375565833E-2</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>4.7122474703796727E-2</v>
+        <v>5.1541675924963212E-2</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>6.8599367923812105E-2</v>
+        <v>5.7895249780519888E-2</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>6.2526192436701447E-2</v>
+        <v>4.7315353512663347E-2</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>-2.9563196536613798E-2</v>
+        <v>-5.1404359370658112E-2</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>1.0212988408805791E-2</v>
+        <v>1.235258629883274E-2</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>7.1550153002487016E-2</v>
+        <v>7.3482688774617319E-2</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>4.8441543131212142E-2</v>
+        <v>3.9384467168530467E-2</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>2.8278945265104039E-2</v>
+        <v>2.2421670822116199E-2</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>7.5537118481544624E-2</v>
+        <v>7.8262163466500861E-2</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>0.135572297439017</v>
+        <v>0.1316213520428883</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>7.9489035126871083E-2</v>
+        <v>7.5445645101278519E-2</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>4.2694962324681771E-2</v>
+        <v>2.7688854676239841E-2</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>0.1200185237013572</v>
+        <v>0.1098065835697606</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>5.8045655876641677E-2</v>
+        <v>4.9836167617247309E-2</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>-5.0530541887186413E-2</v>
+        <v>-2.9615384696364249E-2</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>0.1194159521271594</v>
+        <v>0.1187934460767783</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>-0.14451789664873471</v>
+        <v>-0.15466068722577789</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>-0.34564533110818663</v>
+        <v>-0.35080182245781211</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>-8.7874481324991607E-2</v>
+        <v>-8.0171632243937502E-2</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>-0.13956194970154359</v>
+        <v>-0.1429535725250094</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>2.482921858030062E-2</v>
+        <v>2.2653944101030391E-2</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>-0.12057459305815139</v>
+        <v>-0.11490062257848579</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>-0.53239204827371522</v>
+        <v>-0.53761745618360246</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>-0.63098341304568306</v>
+        <v>-0.63139761292639518</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>-0.51488545729782165</v>
+        <v>-0.51686297062465347</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>-0.25167115142970098</v>
+        <v>-0.26407810467625648</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>-0.3837495292051526</v>
+        <v>-0.38248265377526341</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>-0.18901525480672079</v>
+        <v>-0.19007416496959709</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>-0.1029535453259411</v>
+        <v>-0.1120719332737343</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>-0.32760151536468629</v>
+        <v>-0.34044837211285389</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>-0.37362613837587427</v>
+        <v>-0.38956449469346649</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>-6.3369893073953645E-2</v>
+        <v>-6.9423440222603203E-2</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>9.5961407217964884E-3</v>
+        <v>1.128783084950849E-2</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>-0.1072748600557957</v>
+        <v>-0.1208942101437724</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>3.471764069199778E-2</v>
+        <v>2.9930363393202739E-2</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>7.3742512913660234E-3</v>
+        <v>9.9771466319443815E-3</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>0.12206584780807039</v>
+        <v>0.1159645541617273</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>8.8842563260942684E-2</v>
+        <v>7.9758482190558727E-2</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>0.1286115203698818</v>
+        <v>0.1181924877927099</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>0.20420604614641169</v>
+        <v>0.19764481123787131</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>0.1032060373660881</v>
+        <v>9.2273947706537962E-2</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>-8.6232900204226734E-2</v>
+        <v>-5.368706850637537E-2</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>0.19687573828069199</v>
+        <v>0.19625346038550959</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>2.007224701032366E-2</v>
+        <v>1.448807556993712E-2</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>0.106654216025117</v>
+        <v>9.8676666104776212E-2</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>0.1187146574041419</v>
+        <v>0.1168527480010646</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>6.303671449002099E-2</v>
+        <v>5.6243064299563092E-2</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>0.1106923142732428</v>
+        <v>0.1106279206745317</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>5.8515232132386318E-2</v>
+        <v>5.6390471295065261E-2</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>-2.590434795898738E-2</v>
+        <v>-2.7825580904451131E-2</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>5.5795432260352766E-3</v>
+        <v>7.4039808041421653E-3</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>-1.9098985916270961E-2</v>
+        <v>-1.9729335367313292E-2</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>7.1608036270956292E-3</v>
+        <v>7.2275133278640654E-3</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>-4.1999311026958003E-2</v>
+        <v>-4.3863627657920137E-2</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>9.1863320203240006E-2</v>
+        <v>9.0011312516873151E-2</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>9.7449136201409492E-2</v>
+        <v>8.7056482960802845E-2</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>7.6036709679468906E-2</v>
+        <v>6.544758222196323E-2</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>6.0972765654419628E-2</v>
+        <v>5.2106673785722341E-2</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>0.12169071230565411</v>
+        <v>0.1225696241629695</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>0.18021513059855379</v>
+        <v>0.1796240683962651</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>0.1185876193265331</v>
+        <v>0.1089324134702126</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>0.1068371064772239</v>
+        <v>0.1032288749654935</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>0.1304327583206695</v>
+        <v>0.13271108025223829</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>0.18140685377179899</v>
+        <v>0.17862162686314911</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>0.1515254696912979</v>
+        <v>0.139331871114554</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>0.12519150398632281</v>
+        <v>0.1143977087759355</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>0.21917028015772741</v>
+        <v>0.21215874505990009</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>0.1438308896023468</v>
+        <v>0.1367837092096528</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>-1.3652629667351189E-2</v>
+        <v>-3.8864253975104371E-3</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>0.30850417550922238</v>
+        <v>0.30811666453588282</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>0.30788797275198038</v>
+        <v>0.30486059818006478</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>0.25709492876475332</v>
+        <v>0.25162341560142548</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>0.31804361648668772</v>
+        <v>0.32057171193669809</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>0.27551700687276143</v>
+        <v>0.27388195036028629</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>0.37675316560905231</v>
+        <v>0.37687955490297509</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>0.25597391912431938</v>
+        <v>0.25658327324255698</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>0.26443416724532259</v>
+        <v>0.26326054162164131</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>0.31065137512106838</v>
+        <v>0.31046259653362651</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>0.23913291904528561</v>
+        <v>0.23754945556701551</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>0.29934285887728018</v>
+        <v>0.29099306945971493</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>0.32927423026839348</v>
+        <v>0.33130436116529188</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>0.29559519696681158</v>
+        <v>0.29531894618027682</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>0.33706861871102162</v>
+        <v>0.33030758654527648</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>0.34567943502550202</v>
+        <v>0.33674169266382958</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>0.26905354312146279</v>
+        <v>0.26279090173786313</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>0.27859525962255821</v>
+        <v>0.2775516559346633</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>0.28554630315055218</v>
+        <v>0.28759052229426812</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>0.23001445349162361</v>
+        <v>0.22119878697630591</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>0.19628269535589471</v>
+        <v>0.19390667110061799</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>0.24704628184393429</v>
+        <v>0.24931748447349389</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>0.28134342768574061</v>
+        <v>0.27779852770143132</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>0.27680324383974092</v>
+        <v>0.27042635673012472</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>0.30431194612402501</v>
+        <v>0.29584719940529142</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>0.32008882565611069</v>
+        <v>0.315523247221831</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>0.27189069850188968</v>
+        <v>0.26530751895954158</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>0.18168333530343761</v>
+        <v>0.23045079043825789</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
@@ -1517,942 +1517,942 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>35.1596712522296</v>
+        <v>35.660491602397137</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>22.46597494430705</v>
+        <v>24.77863609759255</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>21.034304961278131</v>
+        <v>22.822322108699741</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>9.1832023103661093</v>
+        <v>9.2859653336888464</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>44.996662262874978</v>
+        <v>49.045552715555822</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>14.0734156644608</v>
+        <v>14.65995212083622</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>30.295373204523731</v>
+        <v>30.965549208228381</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>19.12062149852828</v>
+        <v>19.68798469241748</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>26.58453176356505</v>
+        <v>27.29625864575323</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>20.16474654605161</v>
+        <v>19.49161003435545</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>7.2780478320967621</v>
+        <v>7.9608902509023869</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>29.70721766001553</v>
+        <v>29.88866679384396</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>14.987704197019781</v>
+        <v>15.64983154057523</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>15.61118285369972</v>
+        <v>17.724791363196498</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>15.390318968672201</v>
+        <v>15.873659697445889</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>29.38878572726037</v>
+        <v>33.007894902829953</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>8.8988876380145658</v>
+        <v>8.782648633230453</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>25.08683533570581</v>
+        <v>23.563953072735512</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>35.520653039402553</v>
+        <v>36.937501684046907</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>3.885453781493081</v>
+        <v>4.0086917369463633</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>37.982316998439067</v>
+        <v>42.508361323906122</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>21.71028633113686</v>
+        <v>21.691501031160112</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>25.7201911577571</v>
+        <v>27.199608985202001</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>28.751749031140491</v>
+        <v>32.109239775372281</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>59.57900183572977</v>
+        <v>59.890566512792347</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>5.6576001891939924</v>
+        <v>6.3995822575334866</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>-0.99973322980807322</v>
+        <v>-0.99973371975707148</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>37.223304680265883</v>
+        <v>35.893169889713349</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>29.625486166054831</v>
+        <v>28.03808862181673</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>39.557080153156328</v>
+        <v>40.527236473566447</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>41.100933462779238</v>
+        <v>42.778508040006272</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>29.2576688511949</v>
+        <v>29.734480271447829</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>22.54736152456827</v>
+        <v>22.074594893174599</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>31.989524831904461</v>
+        <v>34.230344911832113</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>12.03408556236089</v>
+        <v>12.24142428584236</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>12.7862896437952</v>
+        <v>13.26598973186781</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>50.339226065130873</v>
+        <v>53.025911635712532</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>14.96752519489111</v>
+        <v>16.080887597277709</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>25.216835096990561</v>
+        <v>25.81433500172351</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>46.2791920186868</v>
+        <v>44.876920652267998</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>24.36938512217603</v>
+        <v>25.787994399143141</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>42.672904209790723</v>
+        <v>44.868185099246297</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>21.00066568184042</v>
+        <v>21.001654861405299</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>29.285173455305479</v>
+        <v>30.384153479650141</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>5.9542384996648607</v>
+        <v>6.0542168892716717</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>13.84022450550709</v>
+        <v>14.167230123391089</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>2.274945000694931</v>
+        <v>2.373211410809974</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>42.314918659540027</v>
+        <v>43.068326543965277</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>17.316208282492539</v>
+        <v>17.068364938825852</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>24.811970023543971</v>
+        <v>28.588882553983868</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>25.639708571986549</v>
+        <v>26.728651939904399</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>42.20613188358719</v>
+        <v>43.245996896965693</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>21.909056092954749</v>
+        <v>24.73076565774436</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>-0.99924079579055802</v>
+        <v>-0.99922717067703215</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>7.5917161586913497</v>
+        <v>7.6441500236015401</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>18.5193123851382</v>
+        <v>19.565838100262869</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>34.103368732962892</v>
+        <v>35.95866691487862</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>19.122200721954869</v>
+        <v>20.210905306375491</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>13.55494615492622</v>
+        <v>14.55801094321945</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>27.382845164437221</v>
+        <v>27.918671777608779</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>43.880707812581818</v>
+        <v>49.872024407815417</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>41.022133266006492</v>
+        <v>45.198642562719961</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>39.087454281903391</v>
+        <v>41.70185372234819</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>9.8855809646343644</v>
+        <v>10.19740365823931</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>4.8039653312778983</v>
+        <v>5.5721919255669414</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>9.9548868132887964</v>
+        <v>10.320865931704571</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>23.00672380860804</v>
+        <v>23.966379019132489</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>22.45122044017743</v>
+        <v>25.050604362621669</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>6.6327631736954329</v>
+        <v>7.5069886843309117</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>5.9745196573477344</v>
+        <v>6.3583859704147017</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>37.991204522957617</v>
+        <v>44.57861935215503</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>46.862638371270407</v>
+        <v>46.180950585496383</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>2.8265842787143041</v>
+        <v>2.715743522540877</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>8.4753094696011502</v>
+        <v>8.6692731495012012</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>10.161541547779709</v>
+        <v>11.44095200044748</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>30.359228911144339</v>
+        <v>32.4414769029149</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>22.355897274880931</v>
+        <v>22.218401375075601</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>31.1525553699305</v>
+        <v>33.908455130958572</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>14.723114052938969</v>
+        <v>14.53940899436139</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>13.45778799674472</v>
+        <v>14.443302019111689</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>-0.99941040226104305</v>
+        <v>-0.99941167048549118</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>15.74691171640835</v>
+        <v>16.30661248545869</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>13.706484864009511</v>
+        <v>13.568199425726521</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>12.66333350947891</v>
+        <v>11.93730382363734</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>13.67972133977222</v>
+        <v>13.57557163759261</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>9.9380288479245475</v>
+        <v>9.6595086487819177</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>5.4110096470876616</v>
+        <v>5.6450350243458018</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>34.040488705375438</v>
+        <v>33.810053776096801</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>37.175891287750368</v>
+        <v>33.497673358955673</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>5.806254464949216</v>
+        <v>6.4765808720405822</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>30.524408934735799</v>
+        <v>33.299605286576487</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>37.79775676387306</v>
+        <v>39.391408693865557</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>22.086017937132048</v>
+        <v>23.829358710809959</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>17.25972643838071</v>
+        <v>17.116423995433919</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>7.1928037994886118</v>
+        <v>7.6037326115635162</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>12.05646433963026</v>
+        <v>12.41101116483738</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>20.98120690275325</v>
+        <v>21.836936082777139</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>22.716822990701061</v>
+        <v>22.029351896865808</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>33.677148215665632</v>
+        <v>33.214004173490707</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>43.010761395276212</v>
+        <v>44.208877866162297</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>16.566985828562391</v>
+        <v>16.297468795831271</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>20.885828973563619</v>
+        <v>23.38400117986404</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>40.809869995625078</v>
+        <v>39.702817260915651</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>7.7845810539909968</v>
+        <v>7.659741063351019</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>10.786580240234469</v>
+        <v>12.615354569935469</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>21.06559739368873</v>
+        <v>21.36590633885973</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>5.2194013423859182</v>
+        <v>5.3987785050875257</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>-0.89326339655280218</v>
+        <v>-0.89782661787430329</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>7.5600596753599882</v>
+        <v>7.224771419412825</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>8.4764542659823494</v>
+        <v>8.716268491208961</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>0.35914282974921807</v>
+        <v>0.3597576800853054</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>8.4417080704725986</v>
+        <v>8.5200330740304224</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>23.69594225522696</v>
+        <v>27.041382500969739</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>16.76383426076249</v>
+        <v>17.401177780332851</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>8.8906404254415943</v>
+        <v>9.1956508456344501</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>14.93674835470901</v>
+        <v>15.308744799680371</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>39.258817187949589</v>
+        <v>43.968284772885838</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>15.51169746294055</v>
+        <v>15.899460210487639</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>5.6231043497690711</v>
+        <v>5.8278931798629738</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>22.69285588407952</v>
+        <v>23.058302139799721</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>37.390176897279197</v>
+        <v>36.812629962413283</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>18.541692737487431</v>
+        <v>20.241066552084341</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>42.882422289523319</v>
+        <v>47.936315766166537</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>12.691615680450679</v>
+        <v>13.4309275361777</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>13.395646638283161</v>
+        <v>14.727517182787951</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>8.6947850954338115</v>
+        <v>9.1245891368084227</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>27.170674486444739</v>
+        <v>30.257997878636651</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>10.69052374299179</v>
+        <v>10.72327963471507</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>12.803374664284689</v>
+        <v>14.096290490288769</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>41.275042412060323</v>
+        <v>43.548218898002297</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>9.1246836901168784</v>
+        <v>9.8568876813331165</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>68.364541419695541</v>
+        <v>69.841557901840844</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>7.2823544580945816</v>
+        <v>7.4904370284376931</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>16.175416945073351</v>
+        <v>16.866592136708331</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>-0.99772185561928994</v>
+        <v>-0.99763150401787326</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>18.000246708219759</v>
+        <v>18.77537825147526</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>26.56646706586551</v>
+        <v>28.564759789272269</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>17.47801989281421</v>
+        <v>17.647558980239911</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>10.070870285060151</v>
+        <v>10.91152228727854</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>13.26360034789117</v>
+        <v>13.56328678359951</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>22.175827065809202</v>
+        <v>23.95787455174041</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>27.466566938425292</v>
+        <v>27.440897729770551</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>17.04365638386561</v>
+        <v>16.759527391822608</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>14.117236965839631</v>
+        <v>14.1773308546314</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>12.04414250856459</v>
+        <v>12.334359846251751</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>50.979257823571587</v>
+        <v>53.660459574322623</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>24.38774862974374</v>
+        <v>24.79429241522454</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>17.031561240396059</v>
+        <v>17.792033832641241</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>22.027275773279371</v>
+        <v>23.453051329817409</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>10.590051400456639</v>
+        <v>10.83802164345718</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>35.906513980862243</v>
+        <v>36.498716409981171</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>21.435910617942749</v>
+        <v>21.723495267334229</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>11.23560668053188</v>
+        <v>11.30323697442449</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>25.058988173593029</v>
+        <v>26.140870009642509</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>15.67811250801936</v>
+        <v>16.74414627448979</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>49.418779149155867</v>
+        <v>47.427181589280103</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>34.025653786051002</v>
+        <v>35.98302858541112</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>44.193158156403094</v>
+        <v>44.894405069816038</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>34.165348005543592</v>
+        <v>36.325497240480068</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>9.3119814228389792</v>
+        <v>8.8546168344456486</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>31.899424025267528</v>
+        <v>33.463255928697272</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>-0.9987327355271105</v>
+        <v>-0.99892644974115918</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>6.4471489361223826</v>
+        <v>6.4373785457528632</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>5.3267787599414129</v>
+        <v>5.3449139893402986</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>6.6310991919476274</v>
+        <v>6.6377442749885329</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>5.1844060935368921</v>
+        <v>5.1717826586871087</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>5.7027178297358168</v>
+        <v>5.7000470321250507</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>4.5152752039000319</v>
+        <v>4.518774125569017</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>6.0008293783959763</v>
+        <v>5.9804844016863772</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>5.4027874338830211</v>
+        <v>5.3913985727258931</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>5.515424425569937</v>
+        <v>5.4975871376484156</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>5.2853469388746959</v>
+        <v>5.2816140718839453</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>6.1636958055756121</v>
+        <v>6.195253598568474</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>5.6682502300447997</v>
+        <v>5.6546626716789232</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>5.4695467558947346</v>
+        <v>5.4618109938366164</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>4.7217168212773331</v>
+        <v>4.7422197746160206</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>5.1437812962685827</v>
+        <v>5.1711297762922728</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>6.0961295566821727</v>
+        <v>6.1300769898879794</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>6.8173546486182879</v>
+        <v>6.8068431382546626</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>6.3237542994018181</v>
+        <v>6.3076800308178012</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>7.4284106878235674</v>
+        <v>7.4684789187296294</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>7.7851257634250466</v>
+        <v>7.7909753362940251</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>7.4252325002292796</v>
+        <v>7.3696140590431094</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>7.8347507868399848</v>
+        <v>7.8496829868303601</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>7.3049917313776103</v>
+        <v>7.3234948506152504</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>7.6053019662686117</v>
+        <v>7.6574451581684002</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>6.539427071973714</v>
+        <v>6.551636553747116</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>7.137487427914988</v>
+        <v>7.1667836413121506</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.3">
@@ -2462,132 +2462,132 @@
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>16.194795189957151</v>
+        <v>16.247958193945319</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>10.9330921933086</v>
+        <v>11.16788918301673</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>16.694711702507941</v>
+        <v>16.98285995721665</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>12.453719585434721</v>
+        <v>12.517851917437721</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>14.692894955454319</v>
+        <v>15.001979650171791</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>10.668974403847329</v>
+        <v>10.81695934591337</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>15.68876748296344</v>
+        <v>15.8005744619519</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>12.49162384971592</v>
+        <v>12.57711953386602</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>14.58750444459424</v>
+        <v>14.686461965642801</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>12.424384560974159</v>
+        <v>12.31066680210988</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>11.808971092691911</v>
+        <v>12.056434732648031</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>16.104899646266251</v>
+        <v>16.140845024486271</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>13.440936463169519</v>
+        <v>13.60938351148002</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>12.76362884320778</v>
+        <v>13.16410014106955</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>14.551279377767431</v>
+        <v>14.6105259024707</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>15.437661688247699</v>
+        <v>15.84796751698252</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>13.17641189978715</v>
+        <v>13.142142290948231</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>16.716794976397772</v>
+        <v>16.45746384411197</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>22.77064141174823</v>
+        <v>22.894652598494599</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>12.750405679779931</v>
+        <v>12.87251420037175</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>19.613511776398251</v>
+        <v>20.191392723531369</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>17.11129040646037</v>
+        <v>17.096128899820311</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>18.719526934899751</v>
+        <v>18.893709544480739</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>17.059233333053559</v>
+        <v>17.519360035868999</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>20.557593299443571</v>
+        <v>20.558339310154899</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>11.58146051926331</v>
+        <v>11.877016037308421</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.3">
@@ -2597,132 +2597,132 @@
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>14.89892186614545</v>
+        <v>14.751553872293499</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>11.451064970691879</v>
+        <v>11.277675012148631</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>16.967904131979989</v>
+        <v>17.052109593815221</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>14.891470969495151</v>
+        <v>15.06309305626538</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>12.249309463031461</v>
+        <v>12.2915196793465</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>11.521605770988071</v>
+        <v>11.486269194525759</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>13.35432273631822</v>
+        <v>13.55652142419919</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>9.7292983326371498</v>
+        <v>9.7711998392849324</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>9.2761367164658886</v>
+        <v>9.3594402155642022</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>12.269801946502749</v>
+        <v>12.392270848344751</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>12.110077038507301</v>
+        <v>12.30251156439431</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>12.702625763608239</v>
+        <v>12.76434704890703</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>13.825404960764541</v>
+        <v>13.72873516398769</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>10.174736111803099</v>
+        <v>10.329796975822809</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>14.60552622494105</v>
+        <v>14.74186444050148</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>12.27512938451552</v>
+        <v>12.258171589607709</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>14.25839822589198</v>
+        <v>14.39722453313659</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>9.3032447264195426</v>
+        <v>9.3292154707253765</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>13.33921383606685</v>
+        <v>13.38330913478857</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>9.3736018121576503</v>
+        <v>9.4907136558575402</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>16.97078391144009</v>
+        <v>17.07470546729645</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>14.30947196627346</v>
+        <v>14.265271925265861</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>15.401708288055881</v>
+        <v>15.95469216188501</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>14.7290911579276</v>
+        <v>14.8813727860067</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>14.47713382608605</v>
+        <v>14.508478323497069</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>12.9135411566094</v>
+        <v>13.31338209602044</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.3">
@@ -2732,132 +2732,132 @@
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>13.98618033215822</v>
+        <v>14.03369555078914</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>13.63406382718474</v>
+        <v>13.798848526431639</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>19.016543343362532</v>
+        <v>19.135942601187288</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>15.153044154600471</v>
+        <v>15.416121397576211</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>13.584431638816509</v>
+        <v>13.837251823440409</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>15.00879519522538</v>
+        <v>15.09116184033779</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>18.204931721808361</v>
+        <v>18.78916610703968</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>15.10212820692227</v>
+        <v>15.49239781651068</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>14.997717662414781</v>
+        <v>15.240654100172801</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>11.378436263043641</v>
+        <v>11.457533901669279</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>11.596811891510621</v>
+        <v>11.80343664711814</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>12.074570266488299</v>
+        <v>12.172033302812871</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>15.92620053813695</v>
+        <v>16.185805322435769</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>14.780236405348999</v>
+        <v>15.11275423680692</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>11.94966296330867</v>
+        <v>12.184231418813759</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>11.30144467472236</v>
+        <v>11.31129932368103</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>18.640401679185342</v>
+        <v>19.453712315576539</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>20.668754099935381</v>
+        <v>20.64791525050013</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>12.18165647686553</v>
+        <v>12.07902381359351</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>14.894172547334881</v>
+        <v>14.93688842569998</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>14.852478934426729</v>
+        <v>15.24739872659419</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>19.567997845003919</v>
+        <v>19.892643309396611</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>18.36104020899727</v>
+        <v>18.35445785806807</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>18.96772516369089</v>
+        <v>19.251015778879051</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>14.570364234283099</v>
+        <v>14.42747656864905</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>16.278027000857811</v>
+        <v>16.520307781694001</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.3">
@@ -2867,132 +2867,132 @@
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>11.728994567693</v>
+        <v>11.83702928954642</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>6.9243963236390806</v>
+        <v>6.891130832598483</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>6.1322643855029719</v>
+        <v>6.0506293479271376</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>6.5262074542671824</v>
+        <v>6.5645496563087367</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>7.2262454134590781</v>
+        <v>7.1778298621597916</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>5.091864807899003</v>
+        <v>5.1450896772918693</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>10.41932320543699</v>
+        <v>10.45178813807418</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>6.9989854671070297</v>
+        <v>6.8056748020995759</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>4.0356391545645396</v>
+        <v>4.1300368467901318</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>5.4651868836677577</v>
+        <v>5.5876269033867647</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>7.7224477432209104</v>
+        <v>7.7883635024968036</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>5.8694449419931436</v>
+        <v>5.9863070122355584</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>6.4659144525111012</v>
+        <v>6.4579838425296412</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>6.3607629912885946</v>
+        <v>6.4349209716726801</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>6.3006456358018994</v>
+        <v>6.3359920956534577</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>7.1763301550451519</v>
+        <v>7.222845070897665</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>9.312559115249142</v>
+        <v>9.2056932892342189</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>10.3581608971812</v>
+        <v>10.345616514965419</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>5.8403469580363581</v>
+        <v>5.8576976243588312</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>7.1130304038296401</v>
+        <v>7.0781469869444571</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>9.1142241312431356</v>
+        <v>9.3521575776394528</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>11.749591323123999</v>
+        <v>11.647636231286659</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510">
-        <v>8.2561358187084704</v>
+        <v>8.1909852184444212</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>9.5755734044469047</v>
+        <v>9.9064860675742707</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>11.812161597340319</v>
+        <v>11.81130725075881</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513">
-        <v>7.5265584205599421</v>
+        <v>7.5411587752233196</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.3">
@@ -3002,132 +3002,132 @@
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515">
-        <v>13.56765037695525</v>
+        <v>13.44582698861614</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>8.8068059445497084</v>
+        <v>8.8692445054794753</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>7.6337686479085711</v>
+        <v>7.5979325801891244</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518">
-        <v>10.14189496940625</v>
+        <v>10.148464795452099</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519">
-        <v>14.038200263343279</v>
+        <v>14.424463602653869</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>11.223043808813831</v>
+        <v>11.365137087311419</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521">
-        <v>10.655097689914561</v>
+        <v>10.70816354274031</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522">
-        <v>10.5130294218553</v>
+        <v>10.56250388128085</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523">
-        <v>13.695302597028221</v>
+        <v>14.101933830354239</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524">
-        <v>10.85446287639911</v>
+        <v>10.935943885072509</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525">
-        <v>9.9913828934718971</v>
+        <v>10.151231936646999</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526">
-        <v>12.08429240862745</v>
+        <v>12.11771563630526</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527">
-        <v>15.633259172050209</v>
+        <v>15.56730004709936</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528">
-        <v>12.0868570199801</v>
+        <v>12.29370135057796</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529">
-        <v>15.42989279229368</v>
+        <v>15.809094150606731</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530">
-        <v>11.939588840845049</v>
+        <v>12.0859414669616</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531">
-        <v>14.240302391330991</v>
+        <v>14.5970218810529</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532">
-        <v>13.27441593624143</v>
+        <v>13.41627825463163</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533">
-        <v>17.3541598013081</v>
+        <v>17.76908194659115</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534">
-        <v>14.499654469603639</v>
+        <v>14.509232044617169</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535">
-        <v>14.734545976316211</v>
+        <v>15.049741326202289</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536">
-        <v>21.191719600699471</v>
+        <v>21.504605908607171</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537">
-        <v>14.053470659917011</v>
+        <v>14.176185570643669</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538">
-        <v>21.17355932014279</v>
+        <v>21.23290694989721</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539">
-        <v>12.16821021577589</v>
+        <v>12.19175389233575</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540">
-        <v>16.1539568921417</v>
+        <v>16.29557710180493</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.3">
@@ -3137,132 +3137,132 @@
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542">
-        <v>13.9003340481182</v>
+        <v>14.058036053789101</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543">
-        <v>15.780336403194349</v>
+        <v>16.09751644365954</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544">
-        <v>14.00734199629418</v>
+        <v>13.99952531153756</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545">
-        <v>12.143662925525939</v>
+        <v>12.42285275782443</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546">
-        <v>12.24017972168711</v>
+        <v>12.30950070952399</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547">
-        <v>16.30388250634763</v>
+        <v>16.668025227557081</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548">
-        <v>15.20634014980396</v>
+        <v>15.210742280414641</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549">
-        <v>13.595718205906961</v>
+        <v>13.529963676331599</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550">
-        <v>12.86808139307754</v>
+        <v>12.87698929513919</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551">
-        <v>11.133223703513091</v>
+        <v>11.19824337035047</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552">
-        <v>17.832676372138099</v>
+        <v>17.988529328427688</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553">
-        <v>15.09478778853723</v>
+        <v>15.21112607547987</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554">
-        <v>12.95232178606854</v>
+        <v>13.10172613559029</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555">
-        <v>14.332862136606179</v>
+        <v>14.51141948253683</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556">
-        <v>12.377708487412839</v>
+        <v>12.379747713608261</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557">
-        <v>15.88045311385234</v>
+        <v>15.9385688431161</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558">
-        <v>14.46991530324456</v>
+        <v>14.514194074322029</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559">
-        <v>12.140149280374439</v>
+        <v>12.19581049407271</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560">
-        <v>14.98725856236595</v>
+        <v>15.095307705147309</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561">
-        <v>12.92773016602796</v>
+        <v>13.14100247284356</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562">
-        <v>18.05113902505131</v>
+        <v>17.862487401605541</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563">
-        <v>16.87288083840992</v>
+        <v>17.10397833085419</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564">
-        <v>17.630332040726191</v>
+        <v>17.645251314467881</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565">
-        <v>17.640687805532831</v>
+        <v>17.859870744526489</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566">
-        <v>12.06418110405032</v>
+        <v>11.900986561501529</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567">
-        <v>16.22891206060557</v>
+        <v>16.384964528930109</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.3">

--- a/Thesis/z1.xlsx
+++ b/Thesis/z1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\college_works\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C8DB71-AE8F-4983-847F-5B6B964F5CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C4C0EF-22EB-4ECA-94DF-C0F47C339F6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A568"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
+      <selection activeCell="C560" sqref="C560"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -437,947 +439,947 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.31899143929638663</v>
+        <v>0.3192454243462185</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.40492417780771162</v>
+        <v>0.40230920437053119</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.34087091948027898</v>
+        <v>0.33277233380822069</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.40503280784729512</v>
+        <v>0.39057526502387963</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.49014697108673599</v>
+        <v>0.468064904129391</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.37808933260191391</v>
+        <v>0.37767815316010361</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.40571146982902168</v>
+        <v>0.37211796237352068</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.38438181712624858</v>
+        <v>0.37646467248120757</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.37087252731769782</v>
+        <v>0.36163602784501953</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.43700170016330009</v>
+        <v>0.44641940987656781</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.40966999966063039</v>
+        <v>0.39729803758042231</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.41988964717816968</v>
+        <v>0.40437997382063662</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.3910765813949173</v>
+        <v>0.38421877198876653</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.41027465205365737</v>
+        <v>0.4140935332890196</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.47834084074104383</v>
+        <v>0.47423792820135779</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.45359276799495818</v>
+        <v>0.4613631697051232</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.38622797913200968</v>
+        <v>0.38123558068323882</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.36426714541638278</v>
+        <v>0.37136228893803752</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.39620102258784862</v>
+        <v>0.40374416381469141</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.35857462446723321</v>
+        <v>0.42229451517966088</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.32678785938748062</v>
+        <v>0.33982714044164442</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.36243450606735811</v>
+        <v>0.34183143879307382</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.36257367607128599</v>
+        <v>0.36179836629401108</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.37871427447097089</v>
+        <v>0.39021138268700878</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.35493442086852472</v>
+        <v>0.35167835944840892</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.39193434013497352</v>
+        <v>0.41064201462408179</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>0.34826777310758539</v>
+        <v>0.34841992388079079</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0.34800051668251242</v>
+        <v>0.32084083041202321</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>0.24319466205764051</v>
+        <v>0.23154356236130899</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0.22330358194570021</v>
+        <v>0.2137699599860956</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0.2395360309078767</v>
+        <v>0.2398529392267934</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.30023701666840841</v>
+        <v>0.29766754521067218</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.19706396494320119</v>
+        <v>0.22636826181461439</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.2851893377997593</v>
+        <v>0.25302156936650683</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0.21293309614897171</v>
+        <v>0.22376743336240371</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0.24732071461030411</v>
+        <v>0.26044882926479168</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0.17407946172743111</v>
+        <v>0.1491875013543503</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0.17743548550129409</v>
+        <v>0.1686750320722506</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0.24004215799030101</v>
+        <v>0.2456175112428389</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.25527456871105342</v>
+        <v>0.25000138421287721</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>0.22502985538324791</v>
+        <v>0.20217671256970449</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0.19458725182418049</v>
+        <v>0.19848019762891289</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0.27151169156221477</v>
+        <v>0.2771810156727626</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>0.20233609029635041</v>
+        <v>0.1784945276133359</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>0.22599572892650621</v>
+        <v>0.25142613975235928</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>0.2165137814458378</v>
+        <v>0.24389991050291221</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>0.21320580998616451</v>
+        <v>0.29489847251954332</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>0.2098972758840934</v>
+        <v>0.18195080146987649</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>0.25036926719181363</v>
+        <v>0.28198577973948658</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>0.25784169665902718</v>
+        <v>0.2801302504150866</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>0.24890381361039041</v>
+        <v>0.25366489525113822</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>0.2445184437977618</v>
+        <v>0.21818439079400059</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>0.24241672682876911</v>
+        <v>0.27453208826467301</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>0.1787875024368375</v>
+        <v>0.15529282181239221</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>0.23219339148192639</v>
+        <v>0.21157656631652619</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>0.1234722423135718</v>
+        <v>0.14691699648952669</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>2.9178849689201179E-2</v>
+        <v>4.1786576692862197E-2</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>4.5194704790540448E-2</v>
+        <v>3.238543600174143E-2</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>0.1217414988847498</v>
+        <v>0.1146192708549376</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>2.090022343277163E-2</v>
+        <v>2.0360523287700209E-2</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>0.10259747316270849</v>
+        <v>7.0355701210799426E-2</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>1.947987741679388E-2</v>
+        <v>1.9821240135685151E-2</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>-9.6806800894041076E-2</v>
+        <v>-4.9632015174538441E-2</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>-7.9357701736520209E-2</v>
+        <v>-0.1139057016696421</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>-3.1480378485477793E-2</v>
+        <v>-3.7994832192431327E-2</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>1.6604935072551771E-2</v>
+        <v>-4.9307341391366059E-3</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>-4.3490138375565833E-2</v>
+        <v>-3.4073295266764878E-2</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>5.1541675924963212E-2</v>
+        <v>8.3513872161412872E-2</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>5.7895249780519888E-2</v>
+        <v>6.0614296771843233E-2</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>4.7315353512663347E-2</v>
+        <v>6.1760289576553842E-2</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>-5.1404359370658112E-2</v>
+        <v>-8.0009661444164798E-2</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>1.235258629883274E-2</v>
+        <v>1.726038134703348E-2</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>7.3482688774617319E-2</v>
+        <v>0.1152027687007499</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>3.9384467168530467E-2</v>
+        <v>0.1215692921216949</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>2.2421670822116199E-2</v>
+        <v>2.8645073508061631E-2</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>7.8262163466500861E-2</v>
+        <v>9.2508059793914243E-2</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>0.1316213520428883</v>
+        <v>0.1138855993279856</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>7.5445645101278519E-2</v>
+        <v>8.9882123055642832E-2</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>2.7688854676239841E-2</v>
+        <v>4.2843034007578371E-2</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>0.1098065835697606</v>
+        <v>0.15130793712206381</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>4.9836167617247309E-2</v>
+        <v>1.9906584748249662E-2</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>-2.9615384696364249E-2</v>
+        <v>-4.1421237040832441E-2</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>0.1187934460767783</v>
+        <v>0.16079474336164451</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>-0.15466068722577789</v>
+        <v>-7.8632338485501357E-2</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>-0.35080182245781211</v>
+        <v>-0.34508476097992652</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>-8.0171632243937502E-2</v>
+        <v>-0.1014227320060971</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>-0.1429535725250094</v>
+        <v>-9.3244026887754738E-2</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>2.2653944101030391E-2</v>
+        <v>-3.8276934905136131E-4</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>-0.11490062257848579</v>
+        <v>-0.10904577699485241</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>-0.53761745618360246</v>
+        <v>-0.56038503943182238</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>-0.63139761292639518</v>
+        <v>-0.61145806128336733</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>-0.51686297062465347</v>
+        <v>-0.51462201138616104</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>-0.26407810467625648</v>
+        <v>-0.31866957079541708</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>-0.38248265377526341</v>
+        <v>-0.39205185675633669</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>-0.19007416496959709</v>
+        <v>-0.19635902482427081</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>-0.1120719332737343</v>
+        <v>-0.1242526523634052</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>-0.34044837211285389</v>
+        <v>-0.29614034325265309</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>-0.38956449469346649</v>
+        <v>-0.35113267431914852</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>-6.9423440222603203E-2</v>
+        <v>-4.5561979670812193E-2</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>1.128783084950849E-2</v>
+        <v>2.430501287395526E-2</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>-0.1208942101437724</v>
+        <v>3.240104044623271E-2</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>2.9930363393202739E-2</v>
+        <v>2.801558011203303E-2</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>9.9771466319443815E-3</v>
+        <v>1.7356240676085131E-2</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>0.1159645541617273</v>
+        <v>0.12440502626539809</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>7.9758482190558727E-2</v>
+        <v>5.4940644106613028E-2</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>0.1181924877927099</v>
+        <v>9.3544406785832646E-2</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>0.19764481123787131</v>
+        <v>0.23076152710571679</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>9.2273947706537962E-2</v>
+        <v>0.1035420214608182</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>-5.368706850637537E-2</v>
+        <v>-2.2758827196201599E-2</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>0.19625346038550959</v>
+        <v>0.22262483938919361</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>1.448807556993712E-2</v>
+        <v>3.8274407505621347E-2</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>9.8676666104776212E-2</v>
+        <v>6.6255719736389607E-2</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>0.1168527480010646</v>
+        <v>0.1112395768407739</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>5.6243064299563092E-2</v>
+        <v>6.943847958470617E-2</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>0.1106279206745317</v>
+        <v>6.1837823220853072E-2</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>5.6390471295065261E-2</v>
+        <v>5.3759026639415231E-2</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>-2.7825580904451131E-2</v>
+        <v>-2.6413501142477269E-2</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>7.4039808041421653E-3</v>
+        <v>4.710066506634393E-3</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>-1.9729335367313292E-2</v>
+        <v>-2.3344548618300449E-2</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>7.2275133278640654E-3</v>
+        <v>1.449642327734801E-2</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>-4.3863627657920137E-2</v>
+        <v>-4.0505845675824673E-2</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>9.0011312516873151E-2</v>
+        <v>8.9776909001358762E-2</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>8.7056482960802845E-2</v>
+        <v>6.4435350320758672E-2</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>6.544758222196323E-2</v>
+        <v>6.8988256023435918E-2</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>5.2106673785722341E-2</v>
+        <v>4.6612596656505183E-2</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>0.1225696241629695</v>
+        <v>0.16491836089400019</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>0.1796240683962651</v>
+        <v>0.19812946517389921</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>0.1089324134702126</v>
+        <v>0.19559793735906941</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>0.1032288749654935</v>
+        <v>0.1030486537001062</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>0.13271108025223829</v>
+        <v>0.1414473790076462</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>0.17862162686314911</v>
+        <v>0.1857678308266637</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>0.139331871114554</v>
+        <v>0.11560358236483249</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>0.1143977087759355</v>
+        <v>9.2198524124323972E-2</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>0.21215874505990009</v>
+        <v>0.21975564008391471</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>0.1367837092096528</v>
+        <v>0.11568524064988051</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>-3.8864253975104371E-3</v>
+        <v>-5.1651311276123088E-2</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>0.30811666453588282</v>
+        <v>0.32218471531767301</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>0.30486059818006478</v>
+        <v>0.30241821058929108</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>0.25162341560142548</v>
+        <v>0.24447214190214819</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>0.32057171193669809</v>
+        <v>0.31950013378829778</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>0.27388195036028629</v>
+        <v>0.26819130933317742</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>0.37687955490297509</v>
+        <v>0.36007317302772568</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>0.25658327324255698</v>
+        <v>0.26641456952192433</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>0.26326054162164131</v>
+        <v>0.26011755461841168</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>0.31046259653362651</v>
+        <v>0.30946753445201358</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>0.23754945556701551</v>
+        <v>0.2151323240947606</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>0.29099306945971493</v>
+        <v>0.26641933107749632</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>0.33130436116529188</v>
+        <v>0.32348631605098482</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>0.29531894618027682</v>
+        <v>0.30501065210469541</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>0.33030758654527648</v>
+        <v>0.32572624204106471</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>0.33674169266382958</v>
+        <v>0.34710659412258371</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>0.26279090173786313</v>
+        <v>0.2623819441495695</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>0.2775516559346633</v>
+        <v>0.28775127538727918</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>0.28759052229426812</v>
+        <v>0.29791144081644322</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>0.22119878697630591</v>
+        <v>0.29395067067819047</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>0.19390667110061799</v>
+        <v>0.20236623482737309</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>0.24931748447349389</v>
+        <v>0.27217816631845249</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>0.27779852770143132</v>
+        <v>0.27294950676922081</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>0.27042635673012472</v>
+        <v>0.26091329634877158</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>0.29584719940529142</v>
+        <v>0.28606000764317779</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>0.315523247221831</v>
+        <v>0.33059030341454959</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>0.26530751895954158</v>
+        <v>0.25198586786686722</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>0.23045079043825789</v>
+        <v>0.1945816108615889</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
@@ -1517,942 +1519,942 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>35.660491602397137</v>
+        <v>-6.0997641034571268E-2</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>24.77863609759255</v>
+        <v>0.42920907107525103</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>22.822322108699741</v>
+        <v>-0.38460473742638579</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>9.2859653336888464</v>
+        <v>-0.63937805907941814</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>49.045552715555822</v>
+        <v>4.2871976153623627E-2</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>14.65995212083622</v>
+        <v>-0.39229266946164459</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>30.965549208228381</v>
+        <v>-0.31495576050726443</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>19.68798469241748</v>
+        <v>-0.24726102428743091</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>27.29625864575323</v>
+        <v>-0.48146841864396722</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>19.49161003435545</v>
+        <v>-0.22995509710118561</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>7.9608902509023869</v>
+        <v>-0.28373787060532979</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>29.88866679384396</v>
+        <v>-0.51682097601862087</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>15.64983154057523</v>
+        <v>-0.58016711626319983</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>17.724791363196498</v>
+        <v>-0.67352170118727517</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>15.873659697445889</v>
+        <v>-0.75294801980495674</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>33.007894902829953</v>
+        <v>-0.2340233180790007</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>8.782648633230453</v>
+        <v>-0.30691108193822592</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>23.563953072735512</v>
+        <v>-0.48986121894293011</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>36.937501684046907</v>
+        <v>-0.73043557831868489</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>4.0086917369463633</v>
+        <v>-0.37996421917926138</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>42.508361323906122</v>
+        <v>-9.6239767087346717E-2</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>21.691501031160112</v>
+        <v>4.3392168072433172E-3</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>27.199608985202001</v>
+        <v>-0.40989198096528862</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>32.109239775372281</v>
+        <v>0.2519538080314605</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>59.890566512792347</v>
+        <v>-0.45061858929267667</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>6.3995822575334866</v>
+        <v>-2.6379467919134661E-2</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>-0.99973371975707148</v>
+        <v>-0.99971310296630422</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>35.893169889713349</v>
+        <v>0.4675741478586985</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>28.03808862181673</v>
+        <v>0.56420855653636282</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>40.527236473566447</v>
+        <v>-4.6628096235015612E-2</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>42.778508040006272</v>
+        <v>-0.37523302294114902</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>29.734480271447829</v>
+        <v>0.23036963206623171</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>22.074594893174599</v>
+        <v>-0.32952445398209229</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>34.230344911832113</v>
+        <v>0.24464684370275169</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>12.24142428584236</v>
+        <v>0.14400082406154821</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>13.26598973186781</v>
+        <v>0.93504410662274462</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>53.025911635712532</v>
+        <v>0.89205993529822014</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>16.080887597277709</v>
+        <v>0.10415095431091979</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>25.81433500172351</v>
+        <v>5.4251908397300291E-2</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>44.876920652267998</v>
+        <v>0.30070351341679752</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>25.787994399143141</v>
+        <v>0.15920776387537289</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>44.868185099246297</v>
+        <v>-0.33115380676203321</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>21.001654861405299</v>
+        <v>0.54417528731156717</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>30.384153479650141</v>
+        <v>0.40879489950422798</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>6.0542168892716717</v>
+        <v>0.28996804330144588</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>14.167230123391089</v>
+        <v>-9.4179978139132689E-2</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>2.373211410809974</v>
+        <v>0.77916415047724674</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>43.068326543965277</v>
+        <v>0.27310123461193031</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>17.068364938825852</v>
+        <v>0.44603901648638861</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>28.588882553983868</v>
+        <v>0.27597230486042051</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>26.728651939904399</v>
+        <v>1.2678435348176471</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>43.245996896965693</v>
+        <v>0.53798986832710594</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>24.73076565774436</v>
+        <v>1.409359851955861</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>-0.99922717067703215</v>
+        <v>-0.99921365862311806</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>7.6441500236015401</v>
+        <v>-0.65295351456890049</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>19.565838100262869</v>
+        <v>-0.55563741640173236</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>35.95866691487862</v>
+        <v>-0.42733667362411748</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>20.210905306375491</v>
+        <v>-0.72031771032235925</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>14.55801094321945</v>
+        <v>-0.55299946564807223</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>27.918671777608779</v>
+        <v>-0.72949256219329239</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>49.872024407815417</v>
+        <v>-0.48355162095432308</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>45.198642562719961</v>
+        <v>-0.42500016104644373</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>41.70185372234819</v>
+        <v>-0.1877196166605794</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>10.19740365823931</v>
+        <v>-0.47853106989515709</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>5.5721919255669414</v>
+        <v>-0.43369275306443189</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>10.320865931704571</v>
+        <v>-0.50123900272461153</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>23.966379019132489</v>
+        <v>-0.71766263740796021</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>25.050604362621669</v>
+        <v>-0.75051983569519332</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>7.5069886843309117</v>
+        <v>-0.74445864083558777</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>6.3583859704147017</v>
+        <v>-0.30936875821128129</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>44.57861935215503</v>
+        <v>-0.30952189907120609</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>46.180950585496383</v>
+        <v>-0.65518301003791035</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>2.715743522540877</v>
+        <v>-0.63654048557848752</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>8.6692731495012012</v>
+        <v>-0.30566549804018589</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>11.44095200044748</v>
+        <v>-0.36155834328821229</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>32.4414769029149</v>
+        <v>-0.123924401895423</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>22.218401375075601</v>
+        <v>-0.45001731232789571</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>33.908455130958572</v>
+        <v>-0.16220383969696969</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>14.53940899436139</v>
+        <v>-0.45517579364003469</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>14.443302019111689</v>
+        <v>-0.37916793187485232</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>-0.99941167048549118</v>
+        <v>-0.99943631355206808</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>16.30661248545869</v>
+        <v>0.25197289739105388</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>13.568199425726521</v>
+        <v>3.032613249848739</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>11.93730382363734</v>
+        <v>17.569228398996952</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>13.57557163759261</v>
+        <v>5.1379753545426077</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>9.6595086487819177</v>
+        <v>2.5201729951175502</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>5.6450350243458018</v>
+        <v>3.3914265430291288</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>33.810053776096801</v>
+        <v>2.606985881911692</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>33.497673358955673</v>
+        <v>13.553988986424161</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>6.4765808720405822</v>
+        <v>21.32756939540883</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>33.299605286576487</v>
+        <v>26.74433490062739</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>39.391408693865557</v>
+        <v>18.78293735174805</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>23.829358710809959</v>
+        <v>19.172436022394638</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>17.116423995433919</v>
+        <v>8.3826688049765821</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>7.6037326115635162</v>
+        <v>1.6636069518345351</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>12.41101116483738</v>
+        <v>4.1207999207167143</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>21.836936082777139</v>
+        <v>9.3387462417030456</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>22.029351896865808</v>
+        <v>5.414136864009631</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>33.214004173490707</v>
+        <v>3.549541113975514</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>44.208877866162297</v>
+        <v>61.331967165275167</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>16.297468795831271</v>
+        <v>24.624921635637708</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>23.38400117986404</v>
+        <v>8.2585299577782472</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>39.702817260915651</v>
+        <v>7.0066820362000737</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>7.659741063351019</v>
+        <v>5.180301792507815</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>12.615354569935469</v>
+        <v>4.4841262593676534</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>21.36590633885973</v>
+        <v>0.77432189973024079</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>5.3987785050875257</v>
+        <v>3.8850102007162901</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>-0.89782661787430329</v>
+        <v>-0.91761937442960761</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>7.224771419412825</v>
+        <v>-0.6152738923847394</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>8.716268491208961</v>
+        <v>0.1744655184889437</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>0.3597576800853054</v>
+        <v>-8.4348596339415632E-2</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>8.5200330740304224</v>
+        <v>-0.33393653285968639</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>27.041382500969739</v>
+        <v>-0.35299707876978592</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>17.401177780332851</v>
+        <v>-0.41938004018030139</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>9.1956508456344501</v>
+        <v>-4.0996414901328573E-3</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>15.308744799680371</v>
+        <v>9.4557137722994858E-2</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>43.968284772885838</v>
+        <v>8.5599496499730171E-2</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>15.899460210487639</v>
+        <v>-1.269241837475606E-2</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>5.8278931798629738</v>
+        <v>-7.3548715019063154E-2</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>23.058302139799721</v>
+        <v>0.128979704267044</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>36.812629962413283</v>
+        <v>-0.42971732200931462</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>20.241066552084341</v>
+        <v>-0.47699447155808627</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>47.936315766166537</v>
+        <v>-0.4551688271953197</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>13.4309275361777</v>
+        <v>-4.2956548112384217E-2</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>14.727517182787951</v>
+        <v>-0.38170179827827938</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>9.1245891368084227</v>
+        <v>-0.54429055900431478</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>30.257997878636651</v>
+        <v>-0.37836097109595618</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>10.72327963471507</v>
+        <v>-1.4095712082953189E-2</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>14.096290490288769</v>
+        <v>-0.15340906836746959</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>43.548218898002297</v>
+        <v>-0.24974192416492441</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>9.8568876813331165</v>
+        <v>-0.12625983625455281</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>69.841557901840844</v>
+        <v>0.33807566735665012</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>7.4904370284376931</v>
+        <v>-0.32200983108265191</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>16.866592136708331</v>
+        <v>-0.2715274858531852</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>-0.99763150401787326</v>
+        <v>-0.99739047220478727</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>18.77537825147526</v>
+        <v>27.39696532939233</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>28.564759789272269</v>
+        <v>19.450212787411939</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>17.647558980239911</v>
+        <v>18.54031436585079</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>10.91152228727854</v>
+        <v>15.535943386851891</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>13.56328678359951</v>
+        <v>17.334959102562109</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>23.95787455174041</v>
+        <v>27.366603567489811</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>27.440897729770551</v>
+        <v>30.302688053552359</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>16.759527391822608</v>
+        <v>16.872593040219741</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>14.1773308546314</v>
+        <v>15.284492171768809</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>12.334359846251751</v>
+        <v>9.5226755537889112</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>53.660459574322623</v>
+        <v>35.259986404543717</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>24.79429241522454</v>
+        <v>22.482368815937789</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>17.792033832641241</v>
+        <v>16.845932041301801</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>23.453051329817409</v>
+        <v>26.502645670113161</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>10.83802164345718</v>
+        <v>14.202470695616629</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>36.498716409981171</v>
+        <v>48.253144081219702</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>21.723495267334229</v>
+        <v>15.3317916304807</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>11.30323697442449</v>
+        <v>15.87643220736094</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>26.140870009642509</v>
+        <v>16.968164051633661</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>16.74414627448979</v>
+        <v>13.382421640814281</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>47.427181589280103</v>
+        <v>50.002954733764533</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>35.98302858541112</v>
+        <v>18.324561016176741</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>44.894405069816038</v>
+        <v>50.970396808394199</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>36.325497240480068</v>
+        <v>40.16000726512091</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>8.8546168344456486</v>
+        <v>9.5546466567523041</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>33.463255928697272</v>
+        <v>40.315331315107123</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>-0.99892644974115918</v>
+        <v>-0.99880756954186345</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>6.4373785457528632</v>
+        <v>6.4626265023964482</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>5.3449139893402986</v>
+        <v>5.2553584837852263</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>6.6377442749885329</v>
+        <v>6.7121077926692641</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>5.1717826586871087</v>
+        <v>5.2722865997194948</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>5.7000470321250507</v>
+        <v>5.6752279573375217</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>4.518774125569017</v>
+        <v>4.66042487375117</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>5.9804844016863772</v>
+        <v>5.963170707653271</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>5.3913985727258931</v>
+        <v>5.3851374428845276</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>5.4975871376484156</v>
+        <v>5.5197982561618542</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>5.2816140718839453</v>
+        <v>5.3152397543919179</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>6.195253598568474</v>
+        <v>6.2278139614601384</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>5.6546626716789232</v>
+        <v>5.6379392777267379</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>5.4618109938366164</v>
+        <v>5.4372542387771121</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>4.7422197746160206</v>
+        <v>4.7894241687134604</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>5.1711297762922728</v>
+        <v>5.1356106100263332</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>6.1300769898879794</v>
+        <v>6.1773841527113289</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>6.8068431382546626</v>
+        <v>6.6781920854892221</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>6.3076800308178012</v>
+        <v>6.3199540941800887</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>7.4684789187296294</v>
+        <v>6.8168754207211597</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>7.7909753362940251</v>
+        <v>7.7823994396460678</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>7.3696140590431094</v>
+        <v>7.3558635980443601</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>7.8496829868303601</v>
+        <v>7.680204805814796</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>7.3234948506152504</v>
+        <v>7.3803741612162952</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>7.6574451581684002</v>
+        <v>7.7679748308554579</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>6.551636553747116</v>
+        <v>6.4330449667410994</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>7.1667836413121506</v>
+        <v>7.2436893136460183</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.3">
@@ -2462,132 +2464,132 @@
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>16.247958193945319</v>
+        <v>6.4626265023964482</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>11.16788918301673</v>
+        <v>5.2553584837852263</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>16.98285995721665</v>
+        <v>6.7121077926692641</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>12.517851917437721</v>
+        <v>5.2722865997194948</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>15.001979650171791</v>
+        <v>5.6752279573375217</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>10.81695934591337</v>
+        <v>4.66042487375117</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>15.8005744619519</v>
+        <v>5.963170707653271</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>12.57711953386602</v>
+        <v>5.3851374428845276</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>14.686461965642801</v>
+        <v>5.5197982561618542</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>12.31066680210988</v>
+        <v>5.3152397543919179</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>12.056434732648031</v>
+        <v>6.2278139614601384</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>16.140845024486271</v>
+        <v>5.6379392777267379</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>13.60938351148002</v>
+        <v>5.4372542387771121</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>13.16410014106955</v>
+        <v>4.7894241687134604</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>14.6105259024707</v>
+        <v>5.1356106100263332</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>15.84796751698252</v>
+        <v>6.1773841527113289</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>13.142142290948231</v>
+        <v>6.6781920854892221</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>16.45746384411197</v>
+        <v>6.3199540941800887</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>22.894652598494599</v>
+        <v>6.8168754207211597</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>12.87251420037175</v>
+        <v>7.7823994396460678</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>20.191392723531369</v>
+        <v>7.3558635980443601</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>17.096128899820311</v>
+        <v>7.680204805814796</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>18.893709544480739</v>
+        <v>7.3803741612162952</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>17.519360035868999</v>
+        <v>7.7679748308554579</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>20.558339310154899</v>
+        <v>6.4330449667410994</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>11.877016037308421</v>
+        <v>7.2436893136460183</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.3">
@@ -2597,132 +2599,132 @@
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>14.751553872293499</v>
+        <v>6.4626265023964482</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>11.277675012148631</v>
+        <v>5.2553584837852263</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>17.052109593815221</v>
+        <v>6.7121077926692641</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>15.06309305626538</v>
+        <v>5.2722865997194948</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>12.2915196793465</v>
+        <v>5.6752279573375217</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>11.486269194525759</v>
+        <v>4.66042487375117</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>13.55652142419919</v>
+        <v>5.963170707653271</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>9.7711998392849324</v>
+        <v>5.3851374428845276</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>9.3594402155642022</v>
+        <v>5.5197982561618542</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>12.392270848344751</v>
+        <v>5.3152397543919179</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>12.30251156439431</v>
+        <v>6.2278139614601384</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>12.76434704890703</v>
+        <v>5.6379392777267379</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>13.72873516398769</v>
+        <v>5.4372542387771121</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>10.329796975822809</v>
+        <v>4.7894241687134604</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>14.74186444050148</v>
+        <v>5.1356106100263332</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>12.258171589607709</v>
+        <v>6.1773841527113289</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>14.39722453313659</v>
+        <v>6.6781920854892221</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>9.3292154707253765</v>
+        <v>6.3199540941800887</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>13.38330913478857</v>
+        <v>6.8168754207211597</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>9.4907136558575402</v>
+        <v>7.7823994396460678</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>17.07470546729645</v>
+        <v>7.3558635980443601</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>14.265271925265861</v>
+        <v>7.680204805814796</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>15.95469216188501</v>
+        <v>7.3803741612162952</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>14.8813727860067</v>
+        <v>7.7679748308554579</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>14.508478323497069</v>
+        <v>6.4330449667410994</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>13.31338209602044</v>
+        <v>7.2436893136460183</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.3">
@@ -2732,132 +2734,132 @@
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>14.03369555078914</v>
+        <v>6.4626265023964482</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>13.798848526431639</v>
+        <v>5.2553584837852263</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>19.135942601187288</v>
+        <v>6.7121077926692641</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>15.416121397576211</v>
+        <v>5.2722865997194948</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>13.837251823440409</v>
+        <v>5.6752279573375217</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>15.09116184033779</v>
+        <v>4.66042487375117</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>18.78916610703968</v>
+        <v>5.963170707653271</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>15.49239781651068</v>
+        <v>5.3851374428845276</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>15.240654100172801</v>
+        <v>5.5197982561618542</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>11.457533901669279</v>
+        <v>5.3152397543919179</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>11.80343664711814</v>
+        <v>6.2278139614601384</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>12.172033302812871</v>
+        <v>5.6379392777267379</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>16.185805322435769</v>
+        <v>5.4372542387771121</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>15.11275423680692</v>
+        <v>4.7894241687134604</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>12.184231418813759</v>
+        <v>5.1356106100263332</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>11.31129932368103</v>
+        <v>6.1773841527113289</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>19.453712315576539</v>
+        <v>6.6781920854892221</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>20.64791525050013</v>
+        <v>6.3199540941800887</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>12.07902381359351</v>
+        <v>6.8168754207211597</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>14.93688842569998</v>
+        <v>7.7823994396460678</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>15.24739872659419</v>
+        <v>7.3558635980443601</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>19.892643309396611</v>
+        <v>7.680204805814796</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>18.35445785806807</v>
+        <v>7.3803741612162952</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>19.251015778879051</v>
+        <v>7.7679748308554579</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>14.42747656864905</v>
+        <v>6.4330449667410994</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>16.520307781694001</v>
+        <v>7.2436893136460183</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.3">
@@ -2867,132 +2869,132 @@
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>11.83702928954642</v>
+        <v>6.4626265023964482</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>6.891130832598483</v>
+        <v>5.2553584837852263</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>6.0506293479271376</v>
+        <v>6.7121077926692641</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>6.5645496563087367</v>
+        <v>5.2722865997194948</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>7.1778298621597916</v>
+        <v>5.6752279573375217</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>5.1450896772918693</v>
+        <v>4.66042487375117</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>10.45178813807418</v>
+        <v>5.963170707653271</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>6.8056748020995759</v>
+        <v>5.3851374428845276</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>4.1300368467901318</v>
+        <v>5.5197982561618542</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>5.5876269033867647</v>
+        <v>5.3152397543919179</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>7.7883635024968036</v>
+        <v>6.2278139614601384</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>5.9863070122355584</v>
+        <v>5.6379392777267379</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>6.4579838425296412</v>
+        <v>5.4372542387771121</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>6.4349209716726801</v>
+        <v>4.7894241687134604</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>6.3359920956534577</v>
+        <v>5.1356106100263332</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>7.222845070897665</v>
+        <v>6.1773841527113289</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>9.2056932892342189</v>
+        <v>6.6781920854892221</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>10.345616514965419</v>
+        <v>6.3199540941800887</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>5.8576976243588312</v>
+        <v>6.8168754207211597</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>7.0781469869444571</v>
+        <v>7.7823994396460678</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>9.3521575776394528</v>
+        <v>7.3558635980443601</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>11.647636231286659</v>
+        <v>7.680204805814796</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510">
-        <v>8.1909852184444212</v>
+        <v>7.3803741612162952</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>9.9064860675742707</v>
+        <v>7.7679748308554579</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>11.81130725075881</v>
+        <v>6.4330449667410994</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513">
-        <v>7.5411587752233196</v>
+        <v>7.2436893136460183</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.3">
@@ -3002,132 +3004,132 @@
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515">
-        <v>13.44582698861614</v>
+        <v>6.4626265023964482</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>8.8692445054794753</v>
+        <v>5.2553584837852263</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>7.5979325801891244</v>
+        <v>6.7121077926692641</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518">
-        <v>10.148464795452099</v>
+        <v>5.2722865997194948</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519">
-        <v>14.424463602653869</v>
+        <v>5.6752279573375217</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>11.365137087311419</v>
+        <v>4.66042487375117</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521">
-        <v>10.70816354274031</v>
+        <v>5.963170707653271</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522">
-        <v>10.56250388128085</v>
+        <v>5.3851374428845276</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523">
-        <v>14.101933830354239</v>
+        <v>5.5197982561618542</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524">
-        <v>10.935943885072509</v>
+        <v>5.3152397543919179</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525">
-        <v>10.151231936646999</v>
+        <v>6.2278139614601384</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526">
-        <v>12.11771563630526</v>
+        <v>5.6379392777267379</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527">
-        <v>15.56730004709936</v>
+        <v>5.4372542387771121</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528">
-        <v>12.29370135057796</v>
+        <v>4.7894241687134604</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529">
-        <v>15.809094150606731</v>
+        <v>5.1356106100263332</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530">
-        <v>12.0859414669616</v>
+        <v>6.1773841527113289</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531">
-        <v>14.5970218810529</v>
+        <v>6.6781920854892221</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532">
-        <v>13.41627825463163</v>
+        <v>6.3199540941800887</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533">
-        <v>17.76908194659115</v>
+        <v>6.8168754207211597</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534">
-        <v>14.509232044617169</v>
+        <v>7.7823994396460678</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535">
-        <v>15.049741326202289</v>
+        <v>7.3558635980443601</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536">
-        <v>21.504605908607171</v>
+        <v>7.680204805814796</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537">
-        <v>14.176185570643669</v>
+        <v>7.3803741612162952</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538">
-        <v>21.23290694989721</v>
+        <v>7.7679748308554579</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539">
-        <v>12.19175389233575</v>
+        <v>6.4330449667410994</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540">
-        <v>16.29557710180493</v>
+        <v>7.2436893136460183</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.3">
@@ -3137,132 +3139,132 @@
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542">
-        <v>14.058036053789101</v>
+        <v>6.4626265023964482</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543">
-        <v>16.09751644365954</v>
+        <v>5.2553584837852263</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544">
-        <v>13.99952531153756</v>
+        <v>6.7121077926692641</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545">
-        <v>12.42285275782443</v>
+        <v>5.2722865997194948</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546">
-        <v>12.30950070952399</v>
+        <v>5.6752279573375217</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547">
-        <v>16.668025227557081</v>
+        <v>4.66042487375117</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548">
-        <v>15.210742280414641</v>
+        <v>5.963170707653271</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549">
-        <v>13.529963676331599</v>
+        <v>5.3851374428845276</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550">
-        <v>12.87698929513919</v>
+        <v>5.5197982561618542</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551">
-        <v>11.19824337035047</v>
+        <v>5.3152397543919179</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552">
-        <v>17.988529328427688</v>
+        <v>6.2278139614601384</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553">
-        <v>15.21112607547987</v>
+        <v>5.6379392777267379</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554">
-        <v>13.10172613559029</v>
+        <v>5.4372542387771121</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555">
-        <v>14.51141948253683</v>
+        <v>4.7894241687134604</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556">
-        <v>12.379747713608261</v>
+        <v>5.1356106100263332</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557">
-        <v>15.9385688431161</v>
+        <v>6.1773841527113289</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558">
-        <v>14.514194074322029</v>
+        <v>6.6781920854892221</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559">
-        <v>12.19581049407271</v>
+        <v>6.3199540941800887</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560">
-        <v>15.095307705147309</v>
+        <v>6.8168754207211597</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561">
-        <v>13.14100247284356</v>
+        <v>7.7823994396460678</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562">
-        <v>17.862487401605541</v>
+        <v>7.3558635980443601</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563">
-        <v>17.10397833085419</v>
+        <v>7.680204805814796</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564">
-        <v>17.645251314467881</v>
+        <v>7.3803741612162952</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565">
-        <v>17.859870744526489</v>
+        <v>7.7679748308554579</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566">
-        <v>11.900986561501529</v>
+        <v>6.4330449667410994</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567">
-        <v>16.384964528930109</v>
+        <v>7.2436893136460183</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.3">

--- a/Thesis/z1.xlsx
+++ b/Thesis/z1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\college_works\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C4C0EF-22EB-4ECA-94DF-C0F47C339F6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B869C92-73D8-4FD8-B79F-03FF85E2DE9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
-      <selection activeCell="C560" sqref="C560"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,947 +439,947 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.3192454243462185</v>
+        <v>-5.0766719318186708E-2</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.40230920437053119</v>
+        <v>0.1016081716014664</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.33277233380822069</v>
+        <v>-8.6340003910911553E-3</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.39057526502387963</v>
+        <v>7.3200724462922834E-2</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.468064904129391</v>
+        <v>0.25753110391535888</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.37767815316010361</v>
+        <v>3.304746188205672E-2</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.37211796237352068</v>
+        <v>-6.4406687854694673E-3</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.37646467248120757</v>
+        <v>3.3385872977296227E-2</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.36163602784501953</v>
+        <v>5.0505623569211767E-2</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.44641940987656781</v>
+        <v>0.2032222677180916</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.39729803758042231</v>
+        <v>0.1606999704107345</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.40437997382063662</v>
+        <v>5.990280182124634E-2</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.38421877198876653</v>
+        <v>8.4081549070272099E-2</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.4140935332890196</v>
+        <v>7.3352507828034763E-2</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.47423792820135779</v>
+        <v>0.21987261930425511</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.4613631697051232</v>
+        <v>0.18502241677174319</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.38123558068323882</v>
+        <v>0.1008813883014598</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.37136228893803752</v>
+        <v>2.4780153498918728E-2</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.40374416381469141</v>
+        <v>1.6650464319588869E-2</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.42229451517966088</v>
+        <v>0.17057145557633011</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.33982714044164442</v>
+        <v>-1.9307323757109428E-2</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.34183143879307382</v>
+        <v>8.1968749850935413E-3</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.36179836629401108</v>
+        <v>-8.7592412454664279E-5</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.39021138268700878</v>
+        <v>2.599150630834304E-2</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.35167835944840892</v>
+        <v>-2.5489376031929212E-3</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.41064201462408179</v>
+        <v>4.7217147061113303E-2</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>0.34841992388079079</v>
+        <v>-1.3453680742121541E-4</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0.32084083041202321</v>
+        <v>0.88870287565485984</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>0.23154356236130899</v>
+        <v>-0.16849196958689561</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0.2137699599860956</v>
+        <v>-0.1461133082543572</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0.2398529392267934</v>
+        <v>-0.1904739604151357</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.29766754521067218</v>
+        <v>1.104861225351329E-2</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.22636826181461439</v>
+        <v>-0.26398300893817628</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.25302156936650683</v>
+        <v>-7.3744597575424509E-2</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0.22376743336240371</v>
+        <v>-0.17171689186344349</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0.26044882926479168</v>
+        <v>-5.387167439610413E-2</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0.1491875013543503</v>
+        <v>-0.1471017401948452</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0.1686750320722506</v>
+        <v>-0.18411047964263061</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0.2456175112428389</v>
+        <v>-0.14892730667135529</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.25000138421287721</v>
+        <v>-0.14496915993699089</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>0.20217671256970449</v>
+        <v>-0.213543627264659</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0.19848019762891289</v>
+        <v>-0.268428272766706</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0.2771810156727626</v>
+        <v>-0.11256943423755141</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>0.1784945276133359</v>
+        <v>-0.21979780848901909</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>0.25142613975235928</v>
+        <v>-0.17586846781251139</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>0.24389991050291221</v>
+        <v>-0.1978189505305348</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>0.29489847251954332</v>
+        <v>-1.7928747746388051E-4</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>0.18195080146987649</v>
+        <v>-0.19504455460841011</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>0.28198577973948658</v>
+        <v>-0.16434687935523609</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>0.2801302504150866</v>
+        <v>-0.13241813853295209</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>0.25366489525113822</v>
+        <v>-0.1112850879148808</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>0.21818439079400059</v>
+        <v>-0.18740657804168001</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>0.27453208826467301</v>
+        <v>-0.24341822339264341</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>0.15529282181239221</v>
+        <v>-0.28403340534286509</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>0.21157656631652619</v>
+        <v>0.8710382503497649</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>0.14691699648952669</v>
+        <v>-0.30973139457965182</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>4.1786576692862197E-2</v>
+        <v>-0.46882919116190042</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>3.238543600174143E-2</v>
+        <v>-0.46228739669864388</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>0.1146192708549376</v>
+        <v>-0.30142880179283188</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>2.0360523287700209E-2</v>
+        <v>-0.62209726294623979</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>7.0355701210799426E-2</v>
+        <v>-0.47583867336308661</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>1.9821240135685151E-2</v>
+        <v>-0.57229952507842774</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>-4.9632015174538441E-2</v>
+        <v>-0.57155001954439633</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>-0.1139057016696421</v>
+        <v>-0.68743697143060567</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>-3.7994832192431327E-2</v>
+        <v>-0.54674400162593528</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>-4.9307341391366059E-3</v>
+        <v>-0.62606213957352841</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>-3.4073295266764878E-2</v>
+        <v>-0.57827155824909782</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>8.3513872161412872E-2</v>
+        <v>-0.50257822004949348</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>6.0614296771843233E-2</v>
+        <v>-0.46117905852846819</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>6.1760289576553842E-2</v>
+        <v>-0.43372704470881018</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>-8.0009661444164798E-2</v>
+        <v>-0.63048299812842012</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>1.726038134703348E-2</v>
+        <v>-0.49371912384098732</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>0.1152027687007499</v>
+        <v>-0.38227111480372938</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>0.1215692921216949</v>
+        <v>-0.29809146321158031</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>2.8645073508061631E-2</v>
+        <v>-0.59191314132878547</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>9.2508059793914243E-2</v>
+        <v>-0.46054246075470429</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>0.1138855993279856</v>
+        <v>-0.34920001883982837</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>8.9882123055642832E-2</v>
+        <v>-0.48504989252612057</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>4.2843034007578371E-2</v>
+        <v>-0.56581544443201603</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>0.15130793712206381</v>
+        <v>-0.30838135968872682</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>1.9906584748249662E-2</v>
+        <v>-0.49756262535881191</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>-4.1421237040832441E-2</v>
+        <v>0.82806798270042914</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>0.16079474336164451</v>
+        <v>-0.25329690865318277</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>-7.8632338485501357E-2</v>
+        <v>-0.87435717741799857</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>-0.34508476097992652</v>
+        <v>-1.094493660809041</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>-0.1014227320060971</v>
+        <v>-0.6213370797090596</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>-9.3244026887754738E-2</v>
+        <v>-0.8609266313261803</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>-3.8276934905136131E-4</v>
+        <v>-0.64648697302293168</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>-0.10904577699485241</v>
+        <v>-0.66130939040314041</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>-0.56038503943182238</v>
+        <v>-1.218525570980693</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>-0.61145806128336733</v>
+        <v>-1.432366736823254</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>-0.51462201138616104</v>
+        <v>-1.11916479578857</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>-0.31866957079541708</v>
+        <v>-0.96918872947444301</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>-0.39205185675633669</v>
+        <v>-0.94435344147673583</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>-0.19635902482427081</v>
+        <v>-0.78251157767762236</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>-0.1242526523634052</v>
+        <v>-0.62220983269916696</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>-0.29614034325265309</v>
+        <v>-1.025199094909208</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>-0.35113267431914852</v>
+        <v>-1.0537545296245101</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>-4.5561979670812193E-2</v>
+        <v>-0.60653029275692227</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>2.430501287395526E-2</v>
+        <v>-0.52442480635101707</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>3.240104044623271E-2</v>
+        <v>-0.37709125532002591</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>2.801558011203303E-2</v>
+        <v>-0.49741074399553392</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>1.7356240676085131E-2</v>
+        <v>-0.50163396971534358</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>0.12440502626539809</v>
+        <v>-0.38650984700474489</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>5.4940644106613028E-2</v>
+        <v>-0.43643030932688781</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>9.3544406785832646E-2</v>
+        <v>-0.3965141449918661</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>0.23076152710571679</v>
+        <v>-0.2037911360718212</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>0.1035420214608182</v>
+        <v>-0.35232575057163229</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>-2.2758827196201599E-2</v>
+        <v>0.82402220711383878</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>0.22262483938919361</v>
+        <v>-0.19879420542096549</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>3.8274407505621347E-2</v>
+        <v>-0.50500006547433451</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>6.6255719736389607E-2</v>
+        <v>-0.46639012679684277</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>0.1112395768407739</v>
+        <v>-0.31304460720882638</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>6.943847958470617E-2</v>
+        <v>-0.52599458862825332</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>6.1837823220853072E-2</v>
+        <v>-0.3822432969140217</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>5.3759026639415231E-2</v>
+        <v>-0.43350113846186</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>-2.6413501142477269E-2</v>
+        <v>-0.43867913858796148</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>4.710066506634393E-3</v>
+        <v>-0.32625253858520181</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>-2.3344548618300449E-2</v>
+        <v>-0.4782504812017272</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>1.449642327734801E-2</v>
+        <v>-0.55635136737157387</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>-4.0505845675824673E-2</v>
+        <v>-0.56607565626769096</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>8.9776909001358762E-2</v>
+        <v>-0.46986030073284718</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>6.4435350320758672E-2</v>
+        <v>-0.37439615976821949</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>6.8988256023435918E-2</v>
+        <v>-0.36708400432679272</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>4.6612596656505183E-2</v>
+        <v>-0.41376677339875251</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>0.16491836089400019</v>
+        <v>-0.41195017419439112</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>0.19812946517389921</v>
+        <v>-0.35489205219805942</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>0.19559793735906941</v>
+        <v>-0.12307382949101391</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>0.1030486537001062</v>
+        <v>-0.41048262179186717</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>0.1414473790076462</v>
+        <v>-0.38721981913692022</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>0.1857678308266637</v>
+        <v>-0.33970646012186778</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>0.11560358236483249</v>
+        <v>-0.34297741467943621</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>9.2198524124323972E-2</v>
+        <v>-0.47604024344325208</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>0.21975564008391471</v>
+        <v>-0.21909722182698371</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>0.11568524064988051</v>
+        <v>-0.32577899017513462</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>-5.1651311276123088E-2</v>
+        <v>0.82147797194992811</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>0.32218471531767301</v>
+        <v>-6.9010013472325018E-3</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>0.30241821058929108</v>
+        <v>-1.089144698761951E-2</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>0.24447214190214819</v>
+        <v>-0.14914308458336439</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>0.31950013378829778</v>
+        <v>-7.5799533147901492E-3</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>0.26819130933317742</v>
+        <v>-0.1661603749009333</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>0.36007317302772568</v>
+        <v>4.2297814513686298E-2</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>0.26641456952192433</v>
+        <v>-0.15381526578108459</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>0.26011755461841168</v>
+        <v>-2.8882733723963609E-2</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>0.30946753445201358</v>
+        <v>5.5343745366444583E-2</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>0.2151323240947606</v>
+        <v>-6.855787616045908E-2</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>0.26641933107749632</v>
+        <v>-8.9716192666070504E-2</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>0.32348631605098482</v>
+        <v>3.7463877589269741E-3</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>0.30501065210469541</v>
+        <v>-9.6177101378362856E-2</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>0.32572624204106471</v>
+        <v>-6.6620206509245744E-2</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>0.34710659412258371</v>
+        <v>2.4623355115043621E-5</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>0.2623819441495695</v>
+        <v>-7.180804134808555E-2</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>0.28775127538727918</v>
+        <v>-9.3298617896418801E-2</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>0.29791144081644322</v>
+        <v>-9.51543090457867E-2</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>0.29395067067819047</v>
+        <v>-1.598867853754064E-2</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>0.20236623482737309</v>
+        <v>-0.20843346522242021</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>0.27217816631845249</v>
+        <v>-0.17597055270766351</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>0.27294950676922081</v>
+        <v>-0.15808935558057591</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>0.26091329634877158</v>
+        <v>-0.14223343984567821</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>0.28606000764317779</v>
+        <v>-3.6596790577856128E-2</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>0.33059030341454959</v>
+        <v>-3.3996581649756441E-2</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>0.25198586786686722</v>
+        <v>-0.1099039326150773</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>0.1945816108615889</v>
+        <v>0.87281304455744513</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
@@ -1519,942 +1519,942 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>-6.0997641034571268E-2</v>
+        <v>-0.10294946816210621</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>0.42920907107525103</v>
+        <v>0.3401002689527195</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>-0.38460473742638579</v>
+        <v>-0.43334443655928218</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>-0.63937805907941814</v>
+        <v>-0.76559427451169304</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>4.2871976153623627E-2</v>
+        <v>2.328874894965469E-2</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>-0.39229266946164459</v>
+        <v>-0.30518112982009898</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>-0.31495576050726443</v>
+        <v>-0.2266598408098662</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>-0.24726102428743091</v>
+        <v>-0.3333465744853128</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>-0.48146841864396722</v>
+        <v>-0.63620240579204812</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>-0.22995509710118561</v>
+        <v>-0.51014003654223017</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>-0.28373787060532979</v>
+        <v>-0.2515177967553146</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>-0.51682097601862087</v>
+        <v>-0.58963704741179335</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>-0.58016711626319983</v>
+        <v>-0.5422070257015692</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>-0.67352170118727517</v>
+        <v>-0.73203475133255136</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>-0.75294801980495674</v>
+        <v>-0.77553442787904614</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>-0.2340233180790007</v>
+        <v>-0.35624796094939443</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>-0.30691108193822592</v>
+        <v>-0.32490267568921027</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>-0.48986121894293011</v>
+        <v>-0.37542443636826311</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>-0.73043557831868489</v>
+        <v>-0.77200529953763564</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>-0.37996421917926138</v>
+        <v>-0.39984171655744988</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>-9.6239767087346717E-2</v>
+        <v>-7.5356938732494133E-2</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>4.3392168072433172E-3</v>
+        <v>5.6218264470000497E-3</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>-0.40989198096528862</v>
+        <v>-0.33941372481414939</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>0.2519538080314605</v>
+        <v>0.16809103540158971</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>-0.45061858929267667</v>
+        <v>-0.34486770281218743</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>-2.6379467919134661E-2</v>
+        <v>-2.4083475672866051E-2</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>-0.99971310296630422</v>
+        <v>-0.99994990062029609</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>0.4675741478586985</v>
+        <v>0.3755612317662842</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>0.56420855653636282</v>
+        <v>0.2285155547899165</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>-4.6628096235015612E-2</v>
+        <v>3.0569126883059849E-4</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>-0.37523302294114902</v>
+        <v>-0.58304853753534003</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>0.23036963206623171</v>
+        <v>0.44449754604492803</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>-0.32952445398209229</v>
+        <v>-0.5278167523744044</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>0.24464684370275169</v>
+        <v>0.22542275654079641</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>0.14400082406154821</v>
+        <v>-0.12656531559249459</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>0.93504410662274462</v>
+        <v>1.826978004544998E-2</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>0.89205993529822014</v>
+        <v>0.3016037557093233</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>0.10415095431091979</v>
+        <v>-3.2760776819547768E-2</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>5.4251908397300291E-2</v>
+        <v>1.7646309118204951E-3</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>0.30070351341679752</v>
+        <v>0.2090554928317733</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>0.15920776387537289</v>
+        <v>0.29725540059915723</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>-0.33115380676203321</v>
+        <v>-0.36149320658470069</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>0.54417528731156717</v>
+        <v>0.35873200703986141</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>0.40879489950422798</v>
+        <v>0.48467112318760203</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>0.28996804330144588</v>
+        <v>0.33265055931299231</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>-9.4179978139132689E-2</v>
+        <v>-0.25931307985463742</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>0.77916415047724674</v>
+        <v>0.31011251809093199</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>0.27310123461193031</v>
+        <v>0.7192465901130376</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>0.44603901648638861</v>
+        <v>0.5538870001256162</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>0.27597230486042051</v>
+        <v>3.1707027082585798E-2</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>1.2678435348176471</v>
+        <v>0.85517937172141911</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>0.53798986832710594</v>
+        <v>1.416010387996987</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>1.409359851955861</v>
+        <v>1.320720338818004</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>-0.99921365862311806</v>
+        <v>6.9960957369046586</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>-0.65295351456890049</v>
+        <v>-0.65766088169358694</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>-0.55563741640173236</v>
+        <v>-0.56287974601504387</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>-0.42733667362411748</v>
+        <v>-0.48848865214875548</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>-0.72031771032235925</v>
+        <v>-0.77608094898028246</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>-0.55299946564807223</v>
+        <v>-0.4213625833346426</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>-0.72949256219329239</v>
+        <v>-0.7037532837251701</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>-0.48355162095432308</v>
+        <v>-0.35033308269777219</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>-0.42500016104644373</v>
+        <v>-0.47813795053068991</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>-0.1877196166605794</v>
+        <v>-0.27233193305380382</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>-0.47853106989515709</v>
+        <v>-0.55359459333242289</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>-0.43369275306443189</v>
+        <v>-0.37065208994100751</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>-0.50123900272461153</v>
+        <v>-0.5219944687558371</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>-0.71766263740796021</v>
+        <v>-0.64424819835985137</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>-0.75051983569519332</v>
+        <v>-0.74946347032083005</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>-0.74445864083558777</v>
+        <v>-0.75606700965667417</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>-0.30936875821128129</v>
+        <v>-0.33478335239718882</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>-0.30952189907120609</v>
+        <v>-0.36803927678820469</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>-0.65518301003791035</v>
+        <v>-0.64735582419808235</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>-0.63654048557848752</v>
+        <v>-0.65685388054557081</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>-0.30566549804018589</v>
+        <v>-0.15453198940694421</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>-0.36155834328821229</v>
+        <v>-0.1787636667404513</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>-0.123924401895423</v>
+        <v>-0.19630637725956049</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>-0.45001731232789571</v>
+        <v>-0.33090204939472051</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>-0.16220383969696969</v>
+        <v>-3.3165879449393587E-2</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>-0.45517579364003469</v>
+        <v>-0.4535326412909747</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>-0.37916793187485232</v>
+        <v>-0.39887843728899242</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>-0.99943631355206808</v>
+        <v>-0.99990278779147945</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>0.25197289739105388</v>
+        <v>7.3492118033891135E-2</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>3.032613249848739</v>
+        <v>5.7771173442726287</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>17.569228398996952</v>
+        <v>17.741284277912239</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>5.1379753545426077</v>
+        <v>3.999066702381743</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>2.5201729951175502</v>
+        <v>4.094922335135406</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>3.3914265430291288</v>
+        <v>4.5826512109702664</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>2.606985881911692</v>
+        <v>2.4098060010904931</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>13.553988986424161</v>
+        <v>9.5001678892007</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>21.32756939540883</v>
+        <v>18.529649875159219</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>26.74433490062739</v>
+        <v>17.036873535715461</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>18.78293735174805</v>
+        <v>15.14525398402942</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>19.172436022394638</v>
+        <v>12.119950641864611</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>8.3826688049765821</v>
+        <v>7.0404491601545676</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>1.6636069518345351</v>
+        <v>0.97922741915606082</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>4.1207999207167143</v>
+        <v>4.3449947457424827</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>9.3387462417030456</v>
+        <v>9.1355664421628404</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>5.414136864009631</v>
+        <v>5.2058211808545476</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>3.549541113975514</v>
+        <v>3.6209851396621211</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>61.331967165275167</v>
+        <v>49.929295821069189</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>24.624921635637708</v>
+        <v>22.922483094491572</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>8.2585299577782472</v>
+        <v>8.6538529342173938</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>7.0066820362000737</v>
+        <v>7.6832168775646981</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>5.180301792507815</v>
+        <v>4.7098272285724114</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>4.4841262593676534</v>
+        <v>3.899705340087702</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>0.77432189973024079</v>
+        <v>0.85634114286282426</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>3.8850102007162901</v>
+        <v>3.4857150056637951</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>-0.91761937442960761</v>
+        <v>-0.98196931235647744</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>-0.6152738923847394</v>
+        <v>-0.61395973303674056</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>0.1744655184889437</v>
+        <v>0.24005603668180189</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>-8.4348596339415632E-2</v>
+        <v>-2.265419085531491E-2</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>-0.33393653285968639</v>
+        <v>-0.44381062098792728</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>-0.35299707876978592</v>
+        <v>-0.20827229470631331</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>-0.41938004018030139</v>
+        <v>-0.54408807809798554</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>-4.0996414901328573E-3</v>
+        <v>6.3531424623394957E-4</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>9.4557137722994858E-2</v>
+        <v>-0.22317123247630949</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>8.5599496499730171E-2</v>
+        <v>-0.47086441699881848</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>-1.269241837475606E-2</v>
+        <v>-0.29785058091945138</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>-7.3548715019063154E-2</v>
+        <v>-3.6924434424532228E-2</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>0.128979704267044</v>
+        <v>5.0614891412763567E-4</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>-0.42971732200931462</v>
+        <v>-0.32783121912521412</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>-0.47699447155808627</v>
+        <v>-0.59176751472781941</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>-0.4551688271953197</v>
+        <v>-0.56408034930099049</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>-4.2956548112384217E-2</v>
+        <v>-0.15140522207659871</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>-0.38170179827827938</v>
+        <v>-8.5824037291779676E-2</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>-0.54429055900431478</v>
+        <v>-0.36925979342366538</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>-0.37836097109595618</v>
+        <v>-0.5479344178396397</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>-1.4095712082953189E-2</v>
+        <v>2.4181354271599741E-3</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>-0.15340906836746959</v>
+        <v>0.13257608792195971</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>-0.24974192416492441</v>
+        <v>-3.5993625112145461E-2</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>-0.12625983625455281</v>
+        <v>-0.21183208585031871</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>0.33807566735665012</v>
+        <v>0.50263969516071616</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>-0.32200983108265191</v>
+        <v>-0.26730505285404482</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>-0.2715274858531852</v>
+        <v>-0.33487706905342801</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>-0.99739047220478727</v>
+        <v>-0.99947534633257207</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>27.39696532939233</v>
+        <v>-0.32526945328616769</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>19.450212787411939</v>
+        <v>-0.71552238652219535</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>18.54031436585079</v>
+        <v>-6.3321190025691393E-2</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>15.535943386851891</v>
+        <v>-0.70350047488987655</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>17.334959102562109</v>
+        <v>-0.24136584967968749</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>27.366603567489811</v>
+        <v>-0.86814078944331929</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>30.302688053552359</v>
+        <v>-0.2266203566931709</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>16.872593040219741</v>
+        <v>-0.69233517717216353</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>15.284492171768809</v>
+        <v>-0.71284883116432041</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>9.5226755537889112</v>
+        <v>-0.55876374620615143</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>35.259986404543717</v>
+        <v>-0.2785644042639992</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>22.482368815937789</v>
+        <v>-0.5754472489012592</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>16.845932041301801</v>
+        <v>-0.42314076242875442</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>26.502645670113161</v>
+        <v>-0.69562991708618394</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>14.202470695616629</v>
+        <v>-0.68462590883601804</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>48.253144081219702</v>
+        <v>-0.32944958153758319</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>15.3317916304807</v>
+        <v>3.4247642565314103E-2</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>15.87643220736094</v>
+        <v>-0.15599701157962839</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>16.968164051633661</v>
+        <v>-4.347108641220998E-2</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>13.382421640814281</v>
+        <v>0.81085445617931473</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>50.002954733764533</v>
+        <v>0.71272567995911662</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>18.324561016176741</v>
+        <v>0.85752619709554478</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>50.970396808394199</v>
+        <v>0.39144374719740488</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>40.16000726512091</v>
+        <v>-7.2002421011773843E-2</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>9.5546466567523041</v>
+        <v>-0.10334324215054889</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>40.315331315107123</v>
+        <v>0.13163774215179971</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>-0.99880756954186345</v>
+        <v>-0.99983096643134672</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>6.4626265023964482</v>
+        <v>5.0485243690277493</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>5.2553584837852263</v>
+        <v>4.1210747771423364</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>6.7121077926692641</v>
+        <v>5.4747547232981262</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>5.2722865997194948</v>
+        <v>3.9678708986129978</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>5.6752279573375217</v>
+        <v>4.726682684767642</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>4.66042487375117</v>
+        <v>3.5336465541971931</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>5.963170707653271</v>
+        <v>4.8983231875051114</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>5.3851374428845276</v>
+        <v>4.0841059707438436</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>5.5197982561618542</v>
+        <v>4.0370779304899678</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>5.3152397543919179</v>
+        <v>4.0505528908968707</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>6.2278139614601384</v>
+        <v>4.8662052497837891</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>5.6379392777267379</v>
+        <v>4.365053100121143</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>5.4372542387771121</v>
+        <v>4.4114483513244576</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>4.7894241687134604</v>
+        <v>3.6630572546109388</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>5.1356106100263332</v>
+        <v>4.0257940557967657</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>6.1773841527113289</v>
+        <v>4.8216978559614709</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>6.6781920854892221</v>
+        <v>5.537124271512031</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>6.3199540941800887</v>
+        <v>5.2008362790700922</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>6.8168754207211597</v>
+        <v>5.5554654759798296</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>7.7823994396460678</v>
+        <v>6.3511432610965786</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>7.3558635980443601</v>
+        <v>6.2081239684837204</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>7.680204805814796</v>
+        <v>6.4337703858083941</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>7.3803741612162952</v>
+        <v>5.8644927540530318</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>7.7679748308554579</v>
+        <v>6.0025187021723649</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>6.4330449667410994</v>
+        <v>5.5273876770102461</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>7.2436893136460183</v>
+        <v>5.7240594798387523</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.3">
@@ -2464,132 +2464,132 @@
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>6.4626265023964482</v>
+        <v>5.0485243690277493</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>5.2553584837852263</v>
+        <v>4.1210747771423364</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>6.7121077926692641</v>
+        <v>5.4747547232981262</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>5.2722865997194948</v>
+        <v>3.9678708986129978</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>5.6752279573375217</v>
+        <v>4.726682684767642</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>4.66042487375117</v>
+        <v>3.5336465541971931</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>5.963170707653271</v>
+        <v>4.8983231875051114</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>5.3851374428845276</v>
+        <v>4.0841059707438436</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>5.5197982561618542</v>
+        <v>4.0370779304899678</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>5.3152397543919179</v>
+        <v>4.0505528908968707</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>6.2278139614601384</v>
+        <v>4.8662052497837891</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>5.6379392777267379</v>
+        <v>4.365053100121143</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>5.4372542387771121</v>
+        <v>4.4114483513244576</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>4.7894241687134604</v>
+        <v>3.6630572546109388</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>5.1356106100263332</v>
+        <v>4.0257940557967657</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>6.1773841527113289</v>
+        <v>4.8216978559614709</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>6.6781920854892221</v>
+        <v>5.537124271512031</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>6.3199540941800887</v>
+        <v>5.2008362790700922</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>6.8168754207211597</v>
+        <v>5.5554654759798296</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>7.7823994396460678</v>
+        <v>6.3511432610965786</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>7.3558635980443601</v>
+        <v>6.2081239684837204</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>7.680204805814796</v>
+        <v>6.4337703858083941</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>7.3803741612162952</v>
+        <v>5.8644927540530318</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>7.7679748308554579</v>
+        <v>6.0025187021723649</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>6.4330449667410994</v>
+        <v>5.5273876770102461</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>7.2436893136460183</v>
+        <v>5.7240594798387523</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.3">
@@ -2599,132 +2599,132 @@
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>6.4626265023964482</v>
+        <v>5.0485243690277493</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>5.2553584837852263</v>
+        <v>4.1210747771423364</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>6.7121077926692641</v>
+        <v>5.4747547232981262</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>5.2722865997194948</v>
+        <v>3.9678708986129978</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>5.6752279573375217</v>
+        <v>4.726682684767642</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>4.66042487375117</v>
+        <v>3.5336465541971931</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>5.963170707653271</v>
+        <v>4.8983231875051114</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>5.3851374428845276</v>
+        <v>4.0841059707438436</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>5.5197982561618542</v>
+        <v>4.0370779304899678</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>5.3152397543919179</v>
+        <v>4.0505528908968707</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>6.2278139614601384</v>
+        <v>4.8662052497837891</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>5.6379392777267379</v>
+        <v>4.365053100121143</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>5.4372542387771121</v>
+        <v>4.4114483513244576</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>4.7894241687134604</v>
+        <v>3.6630572546109388</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>5.1356106100263332</v>
+        <v>4.0257940557967657</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>6.1773841527113289</v>
+        <v>4.8216978559614709</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>6.6781920854892221</v>
+        <v>5.537124271512031</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>6.3199540941800887</v>
+        <v>5.2008362790700922</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>6.8168754207211597</v>
+        <v>5.5554654759798296</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>7.7823994396460678</v>
+        <v>6.3511432610965786</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>7.3558635980443601</v>
+        <v>6.2081239684837204</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>7.680204805814796</v>
+        <v>6.4337703858083941</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>7.3803741612162952</v>
+        <v>5.8644927540530318</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>7.7679748308554579</v>
+        <v>6.0025187021723649</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>6.4330449667410994</v>
+        <v>5.5273876770102461</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>7.2436893136460183</v>
+        <v>5.7240594798387523</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.3">
@@ -2734,132 +2734,132 @@
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>6.4626265023964482</v>
+        <v>5.0485243690277493</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>5.2553584837852263</v>
+        <v>4.1210747771423364</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>6.7121077926692641</v>
+        <v>5.4747547232981262</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>5.2722865997194948</v>
+        <v>3.9678708986129978</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>5.6752279573375217</v>
+        <v>4.726682684767642</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>4.66042487375117</v>
+        <v>3.5336465541971931</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>5.963170707653271</v>
+        <v>4.8983231875051114</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>5.3851374428845276</v>
+        <v>4.0841059707438436</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>5.5197982561618542</v>
+        <v>4.0370779304899678</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>5.3152397543919179</v>
+        <v>4.0505528908968707</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>6.2278139614601384</v>
+        <v>4.8662052497837891</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>5.6379392777267379</v>
+        <v>4.365053100121143</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>5.4372542387771121</v>
+        <v>4.4114483513244576</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>4.7894241687134604</v>
+        <v>3.6630572546109388</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>5.1356106100263332</v>
+        <v>4.0257940557967657</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>6.1773841527113289</v>
+        <v>4.8216978559614709</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>6.6781920854892221</v>
+        <v>5.537124271512031</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>6.3199540941800887</v>
+        <v>5.2008362790700922</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>6.8168754207211597</v>
+        <v>5.5554654759798296</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>7.7823994396460678</v>
+        <v>6.3511432610965786</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>7.3558635980443601</v>
+        <v>6.2081239684837204</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>7.680204805814796</v>
+        <v>6.4337703858083941</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>7.3803741612162952</v>
+        <v>5.8644927540530318</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>7.7679748308554579</v>
+        <v>6.0025187021723649</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>6.4330449667410994</v>
+        <v>5.5273876770102461</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>7.2436893136460183</v>
+        <v>5.7240594798387523</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.3">
@@ -2869,132 +2869,132 @@
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>6.4626265023964482</v>
+        <v>5.0485243690277493</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>5.2553584837852263</v>
+        <v>4.1210747771423364</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>6.7121077926692641</v>
+        <v>5.4747547232981262</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>5.2722865997194948</v>
+        <v>3.9678708986129978</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>5.6752279573375217</v>
+        <v>4.726682684767642</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>4.66042487375117</v>
+        <v>3.5336465541971931</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>5.963170707653271</v>
+        <v>4.8983231875051114</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>5.3851374428845276</v>
+        <v>4.0841059707438436</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>5.5197982561618542</v>
+        <v>4.0370779304899678</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>5.3152397543919179</v>
+        <v>4.0505528908968707</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>6.2278139614601384</v>
+        <v>4.8662052497837891</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>5.6379392777267379</v>
+        <v>4.365053100121143</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>5.4372542387771121</v>
+        <v>4.4114483513244576</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>4.7894241687134604</v>
+        <v>3.6630572546109388</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>5.1356106100263332</v>
+        <v>4.0257940557967657</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>6.1773841527113289</v>
+        <v>4.8216978559614709</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>6.6781920854892221</v>
+        <v>5.537124271512031</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>6.3199540941800887</v>
+        <v>5.2008362790700922</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>6.8168754207211597</v>
+        <v>5.5554654759798296</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>7.7823994396460678</v>
+        <v>6.3511432610965786</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>7.3558635980443601</v>
+        <v>6.2081239684837204</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>7.680204805814796</v>
+        <v>6.4337703858083941</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510">
-        <v>7.3803741612162952</v>
+        <v>5.8644927540530318</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>7.7679748308554579</v>
+        <v>6.0025187021723649</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>6.4330449667410994</v>
+        <v>5.5273876770102461</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513">
-        <v>7.2436893136460183</v>
+        <v>5.7240594798387523</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.3">
@@ -3004,132 +3004,132 @@
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515">
-        <v>6.4626265023964482</v>
+        <v>5.0485243690277493</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>5.2553584837852263</v>
+        <v>4.1210747771423364</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>6.7121077926692641</v>
+        <v>5.4747547232981262</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518">
-        <v>5.2722865997194948</v>
+        <v>3.9678708986129978</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519">
-        <v>5.6752279573375217</v>
+        <v>4.726682684767642</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>4.66042487375117</v>
+        <v>3.5336465541971931</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521">
-        <v>5.963170707653271</v>
+        <v>4.8983231875051114</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522">
-        <v>5.3851374428845276</v>
+        <v>4.0841059707438436</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523">
-        <v>5.5197982561618542</v>
+        <v>4.0370779304899678</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524">
-        <v>5.3152397543919179</v>
+        <v>4.0505528908968707</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525">
-        <v>6.2278139614601384</v>
+        <v>4.8662052497837891</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526">
-        <v>5.6379392777267379</v>
+        <v>4.365053100121143</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527">
-        <v>5.4372542387771121</v>
+        <v>4.4114483513244576</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528">
-        <v>4.7894241687134604</v>
+        <v>3.6630572546109388</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529">
-        <v>5.1356106100263332</v>
+        <v>4.0257940557967657</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530">
-        <v>6.1773841527113289</v>
+        <v>4.8216978559614709</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531">
-        <v>6.6781920854892221</v>
+        <v>5.537124271512031</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532">
-        <v>6.3199540941800887</v>
+        <v>5.2008362790700922</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533">
-        <v>6.8168754207211597</v>
+        <v>5.5554654759798296</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534">
-        <v>7.7823994396460678</v>
+        <v>6.3511432610965786</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535">
-        <v>7.3558635980443601</v>
+        <v>6.2081239684837204</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536">
-        <v>7.680204805814796</v>
+        <v>6.4337703858083941</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537">
-        <v>7.3803741612162952</v>
+        <v>5.8644927540530318</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538">
-        <v>7.7679748308554579</v>
+        <v>6.0025187021723649</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539">
-        <v>6.4330449667410994</v>
+        <v>5.5273876770102461</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540">
-        <v>7.2436893136460183</v>
+        <v>5.7240594798387523</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.3">
@@ -3139,132 +3139,132 @@
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542">
-        <v>6.4626265023964482</v>
+        <v>5.0485243690277493</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543">
-        <v>5.2553584837852263</v>
+        <v>4.1210747771423364</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544">
-        <v>6.7121077926692641</v>
+        <v>5.4747547232981262</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545">
-        <v>5.2722865997194948</v>
+        <v>3.9678708986129978</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546">
-        <v>5.6752279573375217</v>
+        <v>4.726682684767642</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547">
-        <v>4.66042487375117</v>
+        <v>3.5336465541971931</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548">
-        <v>5.963170707653271</v>
+        <v>4.8983231875051114</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549">
-        <v>5.3851374428845276</v>
+        <v>4.0841059707438436</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550">
-        <v>5.5197982561618542</v>
+        <v>4.0370779304899678</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551">
-        <v>5.3152397543919179</v>
+        <v>4.0505528908968707</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552">
-        <v>6.2278139614601384</v>
+        <v>4.8662052497837891</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553">
-        <v>5.6379392777267379</v>
+        <v>4.365053100121143</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554">
-        <v>5.4372542387771121</v>
+        <v>4.4114483513244576</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555">
-        <v>4.7894241687134604</v>
+        <v>3.6630572546109388</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556">
-        <v>5.1356106100263332</v>
+        <v>4.0257940557967657</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557">
-        <v>6.1773841527113289</v>
+        <v>4.8216978559614709</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558">
-        <v>6.6781920854892221</v>
+        <v>5.537124271512031</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559">
-        <v>6.3199540941800887</v>
+        <v>5.2008362790700922</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560">
-        <v>6.8168754207211597</v>
+        <v>5.5554654759798296</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561">
-        <v>7.7823994396460678</v>
+        <v>6.3511432610965786</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562">
-        <v>7.3558635980443601</v>
+        <v>6.2081239684837204</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563">
-        <v>7.680204805814796</v>
+        <v>6.4337703858083941</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564">
-        <v>7.3803741612162952</v>
+        <v>5.8644927540530318</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565">
-        <v>7.7679748308554579</v>
+        <v>6.0025187021723649</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566">
-        <v>6.4330449667410994</v>
+        <v>5.5273876770102461</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567">
-        <v>7.2436893136460183</v>
+        <v>5.7240594798387523</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.3">

--- a/Thesis/z1.xlsx
+++ b/Thesis/z1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\college_works\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B869C92-73D8-4FD8-B79F-03FF85E2DE9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BF7AEC-4978-45B0-B8B0-D7336F31F500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,9 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A568"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -439,947 +437,947 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>-5.0766719318186708E-2</v>
+        <v>8.8290388253517066E-2</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.1016081716014664</v>
+        <v>0.20756702200192709</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>-8.6340003910911553E-3</v>
+        <v>0.1080693166157583</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>7.3200724462922834E-2</v>
+        <v>0.1992070346116783</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.25753110391535888</v>
+        <v>0.31770160034265071</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3.304746188205672E-2</v>
+        <v>0.1732005308873987</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>-6.4406687854694673E-3</v>
+        <v>0.20284822031319369</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>3.3385872977296227E-2</v>
+        <v>0.173961880390471</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>5.0505623569211767E-2</v>
+        <v>0.17471392049876211</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.2032222677180916</v>
+        <v>0.25926313027002079</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.1606999704107345</v>
+        <v>0.20284816144747961</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>5.990280182124634E-2</v>
+        <v>0.2293303770842352</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>8.4081549070272099E-2</v>
+        <v>0.18260073284274969</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>7.3352507828034763E-2</v>
+        <v>0.20687398210351671</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.21987261930425511</v>
+        <v>0.29919075257392458</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.18502241677174319</v>
+        <v>0.26650330939427819</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.1008813883014598</v>
+        <v>0.17246671472717859</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>2.4780153498918728E-2</v>
+        <v>0.1374369778902777</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1.6650464319588869E-2</v>
+        <v>0.18702268701711439</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.17057145557633011</v>
+        <v>0.20681008746620891</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>-1.9307323757109428E-2</v>
+        <v>9.6381330463218867E-2</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>8.1968749850935413E-3</v>
+        <v>0.1548313059869483</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>-8.7592412454664279E-5</v>
+        <v>0.1440045436681027</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>2.599150630834304E-2</v>
+        <v>0.1616719472840086</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>-2.5489376031929212E-3</v>
+        <v>0.13820855916676161</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>4.7217147061113303E-2</v>
+        <v>0.1905035523236899</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>-1.3453680742121541E-4</v>
+        <v>0.13328523973525189</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0.88870287565485984</v>
+        <v>0.18781714073490061</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>-0.16849196958689561</v>
+        <v>-3.6059131962222601E-2</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>-0.1461133082543572</v>
+        <v>-6.1390830767541822E-2</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>-0.1904739604151357</v>
+        <v>-2.0949991952631749E-2</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1.104861225351329E-2</v>
+        <v>5.5504445932758627E-2</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>-0.26398300893817628</v>
+        <v>-7.3139640403448891E-2</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>-7.3744597575424509E-2</v>
+        <v>4.118508887789174E-2</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>-0.17171689186344349</v>
+        <v>-5.4744586763011437E-2</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>-5.387167439610413E-2</v>
+        <v>1.9965844149368629E-2</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>-0.1471017401948452</v>
+        <v>-9.028327730932767E-2</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>-0.18411047964263061</v>
+        <v>-0.10582537647209431</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>-0.14892730667135529</v>
+        <v>-4.5082999907723881E-3</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>-0.14496915993699089</v>
+        <v>-5.2762791030035406E-3</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>-0.213543627264659</v>
+        <v>-5.1208440745661013E-2</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>-0.268428272766706</v>
+        <v>-8.7716387615030644E-2</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>-0.11256943423755141</v>
+        <v>2.937068854981098E-2</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>-0.21979780848901909</v>
+        <v>-8.0164460495988576E-2</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>-0.17586846781251139</v>
+        <v>-5.7181294160370683E-2</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>-0.1978189505305348</v>
+        <v>-5.1217146490783433E-2</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>-1.7928747746388051E-4</v>
+        <v>4.885266170815511E-2</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>-0.19504455460841011</v>
+        <v>-5.9681974086363498E-2</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>-0.16434687935523609</v>
+        <v>-2.9273537282504748E-3</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>-0.13241813853295209</v>
+        <v>-3.6334327094247968E-4</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>-0.1112850879148808</v>
+        <v>-3.1797725326037703E-2</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>-0.18740657804168001</v>
+        <v>-1.9028893940542399E-2</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>-0.24341822339264341</v>
+        <v>6.9756473406856821E-5</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>-0.28403340534286509</v>
+        <v>-9.5998760244660142E-2</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>0.8710382503497649</v>
+        <v>4.341290825237927E-2</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>-0.30973139457965182</v>
+        <v>-0.19752336301033549</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>-0.46882919116190042</v>
+        <v>-0.30924337998228318</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>-0.46228739669864388</v>
+        <v>-0.28090962314198997</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>-0.30142880179283188</v>
+        <v>-0.17683894655528981</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>-0.62209726294623979</v>
+        <v>-0.30971496125569509</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>-0.47583867336308661</v>
+        <v>-0.20883339354944611</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>-0.57229952507842774</v>
+        <v>-0.31454522089946851</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>-0.57155001954439633</v>
+        <v>-0.44417496775735971</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>-0.68743697143060567</v>
+        <v>-0.41420712746615029</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>-0.54674400162593528</v>
+        <v>-0.38718624269524188</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>-0.62606213957352841</v>
+        <v>-0.31015355987530591</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>-0.57827155824909782</v>
+        <v>-0.40371663788678608</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>-0.50257822004949348</v>
+        <v>-0.28116418184245978</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>-0.46117905852846819</v>
+        <v>-0.26226140217337512</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>-0.43372704470881018</v>
+        <v>-0.27703328337075028</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>-0.63048299812842012</v>
+        <v>-0.43058983212701868</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>-0.49371912384098732</v>
+        <v>-0.32893903719069129</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>-0.38227111480372938</v>
+        <v>-0.2492075985301723</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>-0.29809146321158031</v>
+        <v>-0.18291339276985349</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>-0.59191314132878547</v>
+        <v>-0.31460925448083771</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>-0.46054246075470429</v>
+        <v>-0.224412708220076</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>-0.34920001883982837</v>
+        <v>-0.16468785371423919</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>-0.48504989252612057</v>
+        <v>-0.25001901185923248</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>-0.56581544443201603</v>
+        <v>-0.29574909402045257</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>-0.30838135968872682</v>
+        <v>-0.18603476366454669</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>-0.49756262535881191</v>
+        <v>-0.27030460047630839</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>0.82806798270042914</v>
+        <v>-0.27637995528786052</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>-0.25329690865318277</v>
+        <v>-0.1960783522029203</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>-0.87435717741799857</v>
+        <v>-0.55922760160273755</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>-1.094493660809041</v>
+        <v>-0.82432530759779188</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>-0.6213370797090596</v>
+        <v>-0.45014542622147391</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>-0.8609266313261803</v>
+        <v>-0.52299230864504676</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>-0.64648697302293168</v>
+        <v>-0.30795742215901017</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>-0.66130939040314041</v>
+        <v>-0.49882881599815437</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>-1.218525570980693</v>
+        <v>-1.027502063180761</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>-1.432366736823254</v>
+        <v>-1.157480933746448</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>-1.11916479578857</v>
+        <v>-1.040136676316896</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>-0.96918872947444301</v>
+        <v>-0.67642997548697315</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>-0.94435344147673583</v>
+        <v>-0.86740176298780147</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>-0.78251157767762236</v>
+        <v>-0.60765279587036369</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>-0.62220983269916696</v>
+        <v>-0.50465726138649547</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>-1.025199094909208</v>
+        <v>-0.7925142368940219</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>-1.0537545296245101</v>
+        <v>-0.87406773488466905</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>-0.60653029275692227</v>
+        <v>-0.44919123950473322</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>-0.52442480635101707</v>
+        <v>-0.33925204433752282</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>-0.37709125532002591</v>
+        <v>-0.38372995851581532</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>-0.49741074399553392</v>
+        <v>-0.30488114247843567</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>-0.50163396971534358</v>
+        <v>-0.31529273085714288</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>-0.38650984700474489</v>
+        <v>-0.17943263851156649</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>-0.43643030932688781</v>
+        <v>-0.24307571983676779</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>-0.3965141449918661</v>
+        <v>-0.17467011729128989</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>-0.2037911360718212</v>
+        <v>-7.6518487027556509E-2</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>-0.35232575057163229</v>
+        <v>-0.21055589505564509</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>0.82402220711383878</v>
+        <v>-0.30810222954159372</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>-0.19879420542096549</v>
+        <v>-9.3634826062696797E-2</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>-0.50500006547433451</v>
+        <v>-0.33171533352926957</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>-0.46639012679684277</v>
+        <v>-0.20953513356840031</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>-0.31304460720882638</v>
+        <v>-0.1799392482331077</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>-0.52599458862825332</v>
+        <v>-0.25858018310346648</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>-0.3822432969140217</v>
+        <v>-0.1945395969758395</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>-0.43350113846186</v>
+        <v>-0.26563389201669912</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>-0.43867913858796148</v>
+        <v>-0.34517393084089121</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>-0.32625253858520181</v>
+        <v>-0.3031580107603794</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>-0.4782504812017272</v>
+        <v>-0.3823709962353592</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>-0.55635136737157387</v>
+        <v>-0.34208862209270807</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>-0.56607565626769096</v>
+        <v>-0.39499455295073421</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>-0.46986030073284718</v>
+        <v>-0.22717993363992101</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>-0.37439615976821949</v>
+        <v>-0.22470678324993329</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>-0.36708400432679272</v>
+        <v>-0.26482299967701439</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>-0.41376677339875251</v>
+        <v>-0.27593785113329039</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>-0.41195017419439112</v>
+        <v>-0.19221746797012759</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>-0.35489205219805942</v>
+        <v>-0.1063836484985638</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>-0.12307382949101391</v>
+        <v>-9.6524742826217924E-2</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>-0.41048262179186717</v>
+        <v>-0.20441132395810169</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>-0.38721981913692022</v>
+        <v>-0.14852037608072141</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>-0.33970646012186778</v>
+        <v>-9.4404958431914265E-2</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>-0.34297741467943621</v>
+        <v>-0.1663061033012064</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>-0.47604024344325208</v>
+        <v>-0.17472995328128929</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>-0.21909722182698371</v>
+        <v>-5.0386595068417278E-2</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>-0.32577899017513462</v>
+        <v>-0.14563232117393959</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>0.82147797194992811</v>
+        <v>-0.22252275025701521</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>-6.9010013472325018E-3</v>
+        <v>3.9681161116486237E-2</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>-1.089144698761951E-2</v>
+        <v>6.482848157127441E-2</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>-0.14914308458336439</v>
+        <v>-1.3764864576175021E-2</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>-7.5799533147901492E-3</v>
+        <v>8.7786926008147692E-2</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>-0.1661603749009333</v>
+        <v>3.681247336489088E-2</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>4.2297814513686298E-2</v>
+        <v>0.1695248027978937</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>-0.15381526578108459</v>
+        <v>-4.328543967782256E-4</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>-2.8882733723963609E-2</v>
+        <v>3.4059737426435407E-2</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>5.5343745366444583E-2</v>
+        <v>8.893146136993163E-2</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>-6.855787616045908E-2</v>
+        <v>-2.328599113754061E-2</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>-8.9716192666070504E-2</v>
+        <v>5.9402682870644249E-2</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>3.7463877589269741E-3</v>
+        <v>0.10879220017805361</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>-9.6177101378362856E-2</v>
+        <v>5.041206748536603E-2</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>-6.6620206509245744E-2</v>
+        <v>0.1023922999482763</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>2.4623355115043621E-5</v>
+        <v>0.10925434423495101</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>-7.180804134808555E-2</v>
+        <v>9.9565696899362975E-3</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>-9.3298617896418801E-2</v>
+        <v>1.6210784255814108E-2</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>-9.51543090457867E-2</v>
+        <v>3.7496845641743978E-2</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>-1.598867853754064E-2</v>
+        <v>5.9355151723315097E-2</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>-0.20843346522242021</v>
+        <v>-7.4713874624564247E-2</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>-0.17597055270766351</v>
+        <v>1.434412080377552E-2</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>-0.15808935558057591</v>
+        <v>1.1465939650616021E-2</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>-0.14223343984567821</v>
+        <v>1.3981814865493641E-2</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>-3.6596790577856128E-2</v>
+        <v>6.8832550674209236E-2</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>-3.3996581649756441E-2</v>
+        <v>7.2586767279854025E-2</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>-0.1099039326150773</v>
+        <v>1.9836078511220299E-2</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>0.87281304455744513</v>
+        <v>6.1165390485058868E-2</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
@@ -1519,1757 +1517,1757 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>-0.10294946816210621</v>
+        <v>-0.99692118150600928</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>0.3401002689527195</v>
+        <v>0.40534217061041022</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>-0.43334443655928218</v>
+        <v>-0.43575749562274613</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>-0.76559427451169304</v>
+        <v>-0.70160930915388997</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>2.328874894965469E-2</v>
+        <v>1.5047378779013659E-2</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>-0.30518112982009898</v>
+        <v>-0.5195928487108219</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>-0.2266598408098662</v>
+        <v>-0.33737315319864858</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>-0.3333465744853128</v>
+        <v>-0.35595119262242381</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>-0.63620240579204812</v>
+        <v>-0.48418022190462429</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>-0.51014003654223017</v>
+        <v>-0.28045160947563491</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>-0.2515177967553146</v>
+        <v>-0.39344095201284801</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>-0.58963704741179335</v>
+        <v>-0.5293841091886089</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>-0.5422070257015692</v>
+        <v>-0.55945969793099981</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>-0.73203475133255136</v>
+        <v>-0.67960778953262757</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>-0.77553442787904614</v>
+        <v>-0.73236126364817977</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>-0.35624796094939443</v>
+        <v>-0.21470492679355141</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>-0.32490267568921027</v>
+        <v>-0.25195946617822867</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>-0.37542443636826311</v>
+        <v>-0.45676531806239012</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>-0.77200529953763564</v>
+        <v>-0.69235857335887752</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>-0.39984171655744988</v>
+        <v>-0.31625625143546943</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>-7.5356938732494133E-2</v>
+        <v>-0.25991014132519252</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>5.6218264470000497E-3</v>
+        <v>1.5650242239988881E-2</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>-0.33941372481414939</v>
+        <v>-0.34242950614974182</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>0.16809103540158971</v>
+        <v>0.1929738620992737</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>-0.34486770281218743</v>
+        <v>-0.38484726925976098</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>-2.4083475672866051E-2</v>
+        <v>-4.2753737376204942E-2</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>-0.99994990062029609</v>
+        <v>-0.7249256606689094</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>0.3755612317662842</v>
+        <v>-0.9949482781731851</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>0.2285155547899165</v>
+        <v>0.58428929648697947</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>3.0569126883059849E-4</v>
+        <v>-4.4057761521943517E-2</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>-0.58304853753534003</v>
+        <v>-0.37196948769486538</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>0.44449754604492803</v>
+        <v>0.41378542681228048</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>-0.5278167523744044</v>
+        <v>-0.44477099368736428</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>0.22542275654079641</v>
+        <v>0.33627700668605448</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>-0.12656531559249459</v>
+        <v>0.1030901361525246</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>1.826978004544998E-2</v>
+        <v>0.59803380480918422</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>0.3016037557093233</v>
+        <v>0.81288773765079592</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>-3.2760776819547768E-2</v>
+        <v>4.3154084772487417E-2</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>1.7646309118204951E-3</v>
+        <v>6.3389551867108401E-2</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>0.2090554928317733</v>
+        <v>0.21613218199300741</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>0.29725540059915723</v>
+        <v>0.23651986478142481</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>-0.36149320658470069</v>
+        <v>-0.31902694320507302</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>0.35873200703986141</v>
+        <v>0.44884880723581388</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>0.48467112318760203</v>
+        <v>0.71423306864521696</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>0.33265055931299231</v>
+        <v>0.48832449107954062</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>-0.25931307985463742</v>
+        <v>-4.2242828657258619E-2</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>0.31011251809093199</v>
+        <v>0.55206283065701323</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>0.7192465901130376</v>
+        <v>0.51530877761016014</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>0.5538870001256162</v>
+        <v>0.69102157579332446</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>3.1707027082585798E-2</v>
+        <v>0.4595130153754754</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>0.85517937172141911</v>
+        <v>0.98965284857177083</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>1.416010387996987</v>
+        <v>0.73931232105462419</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>1.320720338818004</v>
+        <v>1.1393706944661339</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>6.9960957369046586</v>
+        <v>-0.20386145564557581</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>-0.65766088169358694</v>
+        <v>-0.99865802256272795</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>-0.56287974601504387</v>
+        <v>-0.52516435655286475</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>-0.48848865214875548</v>
+        <v>-0.46383072038364942</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>-0.77608094898028246</v>
+        <v>-0.73114729505103737</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>-0.4213625833346426</v>
+        <v>-0.55312023389614362</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>-0.7037532837251701</v>
+        <v>-0.76194731601627486</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>-0.35033308269777219</v>
+        <v>-0.47453355841006889</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>-0.47813795053068991</v>
+        <v>-0.36527034794169277</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>-0.27233193305380382</v>
+        <v>-0.33979352120243939</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>-0.55359459333242289</v>
+        <v>-0.48440062532640621</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>-0.37065208994100751</v>
+        <v>-0.51097523899195152</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>-0.5219944687558371</v>
+        <v>-0.46270655178428938</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>-0.64424819835985137</v>
+        <v>-0.66393976910436114</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>-0.74946347032083005</v>
+        <v>-0.7458614784411044</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>-0.75606700965667417</v>
+        <v>-0.72269227950346115</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>-0.33478335239718882</v>
+        <v>-0.32043721243108703</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>-0.36803927678820469</v>
+        <v>-0.29827974554384329</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>-0.64735582419808235</v>
+        <v>-0.57657213432785048</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>-0.65685388054557081</v>
+        <v>-0.61810486517736285</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>-0.15453198940694421</v>
+        <v>-0.26801527698948319</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>-0.1787636667404513</v>
+        <v>-0.34433018965896939</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>-0.19630637725956049</v>
+        <v>-0.18826527095965989</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>-0.33090204939472051</v>
+        <v>-0.38786046954062581</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>-3.3165879449393587E-2</v>
+        <v>-0.14816416581523309</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>-0.4535326412909747</v>
+        <v>-0.35121290653951492</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>-0.39887843728899242</v>
+        <v>-0.45406957648326229</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>-0.99990278779147945</v>
+        <v>-0.33964864014325058</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>7.3492118033891135E-2</v>
+        <v>-0.99461623378027619</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>5.7771173442726287</v>
+        <v>4.4396570814987957</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>17.741284277912239</v>
+        <v>18.327655855569869</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>3.999066702381743</v>
+        <v>4.6690427381978132</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>4.094922335135406</v>
+        <v>3.167130109310385</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>4.5826512109702664</v>
+        <v>2.939752421251157</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>2.4098060010904931</v>
+        <v>2.7970322167168011</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>9.5001678892007</v>
+        <v>11.79972729135662</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>18.529649875159219</v>
+        <v>21.243276995995028</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>17.036873535715461</v>
+        <v>26.932250512092718</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>15.14525398402942</v>
+        <v>14.56324712289506</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>12.119950641864611</v>
+        <v>19.50292368296633</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>7.0404491601545676</v>
+        <v>8.6331522554692484</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>0.97922741915606082</v>
+        <v>1.656129166004483</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>4.3449947457424827</v>
+        <v>4.9201703691332312</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>9.1355664421628404</v>
+        <v>11.225412496954631</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>5.2058211808545476</v>
+        <v>6.2735851820186213</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>3.6209851396621211</v>
+        <v>3.9651354853970431</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>49.929295821069189</v>
+        <v>83.986763039794255</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>22.922483094491572</v>
+        <v>25.027136851982959</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>8.6538529342173938</v>
+        <v>8.0811788962995372</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>7.6832168775646981</v>
+        <v>7.2350362655040783</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>4.7098272285724114</v>
+        <v>4.7487174176559783</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>3.899705340087702</v>
+        <v>3.7372640884142698</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>0.85634114286282426</v>
+        <v>1.140901850656844</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>3.4857150056637951</v>
+        <v>4.155739866776619</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>-0.98196931235647744</v>
+        <v>99.397224705437338</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>-0.61395973303674056</v>
+        <v>-0.99848092939118716</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>0.24005603668180189</v>
+        <v>0.32684659694873819</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>-2.265419085531491E-2</v>
+        <v>-0.20462539365717899</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>-0.44381062098792728</v>
+        <v>-0.36487482474188221</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>-0.20827229470631331</v>
+        <v>-0.32477012273211198</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>-0.54408807809798554</v>
+        <v>-0.53556864982347618</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>6.3531424623394957E-4</v>
+        <v>-5.2785557453787131E-4</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>-0.22317123247630949</v>
+        <v>9.4780375150982712E-3</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>-0.47086441699881848</v>
+        <v>-4.6739660746931123E-2</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>-0.29785058091945138</v>
+        <v>-3.1279597286189717E-2</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>-3.6924434424532228E-2</v>
+        <v>-1.0076667610416E-2</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>5.0614891412763567E-4</v>
+        <v>0.13142867280436701</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>-0.32783121912521412</v>
+        <v>-0.40964897403486228</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>-0.59176751472781941</v>
+        <v>-0.52421792800798972</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>-0.56408034930099049</v>
+        <v>-0.41394862317335868</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>-0.15140522207659871</v>
+        <v>-2.1904599816923252E-2</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>-8.5824037291779676E-2</v>
+        <v>-0.20540775551493101</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>-0.36925979342366538</v>
+        <v>-0.48882392246539408</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>-0.5479344178396397</v>
+        <v>-0.31510225844968831</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>2.4181354271599741E-3</v>
+        <v>-6.752029641825039E-3</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>0.13257608792195971</v>
+        <v>-0.1713217255215522</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>-3.5993625112145461E-2</v>
+        <v>-0.23037026027111659</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>-0.21183208585031871</v>
+        <v>-0.1861735985359777</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>0.50263969516071616</v>
+        <v>0.14590581769676381</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>-0.26730505285404482</v>
+        <v>-0.30193871286360408</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>-0.33487706905342801</v>
+        <v>-0.35408744904582667</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>-0.99947534633257207</v>
+        <v>1.264101398175292</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>-0.32526945328616769</v>
+        <v>-0.99654888544630404</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>-0.71552238652219535</v>
+        <v>-0.63526909426051459</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>-6.3321190025691393E-2</v>
+        <v>-1.9833086238433221E-2</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>-0.70350047488987655</v>
+        <v>-0.63927178733804202</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>-0.24136584967968749</v>
+        <v>-0.35368433976329888</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>-0.86814078944331929</v>
+        <v>-0.86806778607676427</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>-0.2266203566931709</v>
+        <v>-0.30445435690438072</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>-0.69233517717216353</v>
+        <v>-0.58792914918308203</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>-0.71284883116432041</v>
+        <v>-0.52521316920856997</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>-0.55876374620615143</v>
+        <v>-0.33162209907387569</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>-0.2785644042639992</v>
+        <v>-0.25854619448224958</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>-0.5754472489012592</v>
+        <v>-0.51643188058102818</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>-0.42314076242875442</v>
+        <v>-0.41609929731774531</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>-0.69562991708618394</v>
+        <v>-0.71903016582431079</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>-0.68462590883601804</v>
+        <v>-0.63498279859490214</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>-0.32944958153758319</v>
+        <v>-0.17084624437425741</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>3.4247642565314103E-2</v>
+        <v>0.18845765367689171</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>-0.15599701157962839</v>
+        <v>-8.3634669654471222E-2</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>-4.347108641220998E-2</v>
+        <v>4.8341472347684752E-2</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>0.81085445617931473</v>
+        <v>1.169645744099314</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>0.71272567995911662</v>
+        <v>0.29517172046330059</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>0.85752619709554478</v>
+        <v>0.77975329826536188</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>0.39144374719740488</v>
+        <v>0.41135588908055859</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>-7.2002421011773843E-2</v>
+        <v>0.18962195176899099</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>-0.10334324215054889</v>
+        <v>-4.7285758227446323E-2</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>0.13163774215179971</v>
+        <v>0.25175823193675001</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>-0.99983096643134672</v>
+        <v>-1.957809999363173E-3</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>5.0485243690277493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>4.1210747771423364</v>
+        <v>3.9667650065989699</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>5.4747547232981262</v>
+        <v>5.0127893169865354</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>3.9678708986129978</v>
+        <v>3.887468931536405</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>4.726682684767642</v>
+        <v>4.2566279772807913</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>3.5336465541971931</v>
+        <v>3.278767395559548</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>4.8983231875051114</v>
+        <v>4.4475138081492709</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>4.0841059707438436</v>
+        <v>3.9788353091487969</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>4.0370779304899678</v>
+        <v>4.0567839350863766</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>4.0505528908968707</v>
+        <v>4.0211759982450772</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>4.8662052497837891</v>
+        <v>4.4624157699306366</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>4.365053100121143</v>
+        <v>4.1464628535020154</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>4.4114483513244576</v>
+        <v>4.072556021257995</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>3.6630572546109388</v>
+        <v>3.4562239642154799</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>4.0257940557967657</v>
+        <v>3.830998793021553</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>4.8216978559614709</v>
+        <v>4.523953990581294</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>5.537124271512031</v>
+        <v>5.148810240070123</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>5.2008362790700922</v>
+        <v>4.7928514694381388</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>5.5554654759798296</v>
+        <v>5.2054727845415307</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>6.3511432610965786</v>
+        <v>5.9711386322435516</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>6.2081239684837204</v>
+        <v>5.4077476891430836</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>6.4337703858083941</v>
+        <v>5.8854825875096486</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>5.8644927540530318</v>
+        <v>5.4254903664940137</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>6.0025187021723649</v>
+        <v>5.6453839503694176</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>5.5273876770102461</v>
+        <v>5.0246032468858806</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>5.7240594798387523</v>
+        <v>5.2914291052642426</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>1</v>
+        <v>5.7217714046548771</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>5.0485243690277493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>4.1210747771423364</v>
+        <v>3.9667650065989699</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>5.4747547232981262</v>
+        <v>5.0127893169865354</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>3.9678708986129978</v>
+        <v>3.887468931536405</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>4.726682684767642</v>
+        <v>4.2566279772807913</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>3.5336465541971931</v>
+        <v>3.278767395559548</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>4.8983231875051114</v>
+        <v>4.4475138081492709</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>4.0841059707438436</v>
+        <v>3.9788353091487969</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>4.0370779304899678</v>
+        <v>4.0567839350863766</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>4.0505528908968707</v>
+        <v>4.0211759982450772</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>4.8662052497837891</v>
+        <v>4.4624157699306366</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>4.365053100121143</v>
+        <v>4.1464628535020154</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>4.4114483513244576</v>
+        <v>4.072556021257995</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>3.6630572546109388</v>
+        <v>3.4562239642154799</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>4.0257940557967657</v>
+        <v>3.830998793021553</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>4.8216978559614709</v>
+        <v>4.523953990581294</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>5.537124271512031</v>
+        <v>5.148810240070123</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>5.2008362790700922</v>
+        <v>4.7928514694381388</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>5.5554654759798296</v>
+        <v>5.2054727845415307</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>6.3511432610965786</v>
+        <v>5.9711386322435516</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>6.2081239684837204</v>
+        <v>5.4077476891430836</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>6.4337703858083941</v>
+        <v>5.8854825875096486</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>5.8644927540530318</v>
+        <v>5.4254903664940137</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>6.0025187021723649</v>
+        <v>5.6453839503694176</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>5.5273876770102461</v>
+        <v>5.0246032468858806</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>5.7240594798387523</v>
+        <v>5.2914291052642426</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>1</v>
+        <v>5.7217714046548771</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>5.0485243690277493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>4.1210747771423364</v>
+        <v>3.9667650065989699</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>5.4747547232981262</v>
+        <v>5.0127893169865354</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>3.9678708986129978</v>
+        <v>3.887468931536405</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>4.726682684767642</v>
+        <v>4.2566279772807913</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>3.5336465541971931</v>
+        <v>3.278767395559548</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>4.8983231875051114</v>
+        <v>4.4475138081492709</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>4.0841059707438436</v>
+        <v>3.9788353091487969</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>4.0370779304899678</v>
+        <v>4.0567839350863766</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>4.0505528908968707</v>
+        <v>4.0211759982450772</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>4.8662052497837891</v>
+        <v>4.4624157699306366</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>4.365053100121143</v>
+        <v>4.1464628535020154</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>4.4114483513244576</v>
+        <v>4.072556021257995</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>3.6630572546109388</v>
+        <v>3.4562239642154799</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>4.0257940557967657</v>
+        <v>3.830998793021553</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>4.8216978559614709</v>
+        <v>4.523953990581294</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>5.537124271512031</v>
+        <v>5.148810240070123</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>5.2008362790700922</v>
+        <v>4.7928514694381388</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>5.5554654759798296</v>
+        <v>5.2054727845415307</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>6.3511432610965786</v>
+        <v>5.9711386322435516</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>6.2081239684837204</v>
+        <v>5.4077476891430836</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>6.4337703858083941</v>
+        <v>5.8854825875096486</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>5.8644927540530318</v>
+        <v>5.4254903664940137</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>6.0025187021723649</v>
+        <v>5.6453839503694176</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>5.5273876770102461</v>
+        <v>5.0246032468858806</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>5.7240594798387523</v>
+        <v>5.2914291052642426</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>1</v>
+        <v>5.7217714046548771</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>5.0485243690277493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>4.1210747771423364</v>
+        <v>3.9667650065989699</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>5.4747547232981262</v>
+        <v>5.0127893169865354</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>3.9678708986129978</v>
+        <v>3.887468931536405</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>4.726682684767642</v>
+        <v>4.2566279772807913</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>3.5336465541971931</v>
+        <v>3.278767395559548</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>4.8983231875051114</v>
+        <v>4.4475138081492709</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>4.0841059707438436</v>
+        <v>3.9788353091487969</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>4.0370779304899678</v>
+        <v>4.0567839350863766</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>4.0505528908968707</v>
+        <v>4.0211759982450772</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>4.8662052497837891</v>
+        <v>4.4624157699306366</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>4.365053100121143</v>
+        <v>4.1464628535020154</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>4.4114483513244576</v>
+        <v>4.072556021257995</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>3.6630572546109388</v>
+        <v>3.4562239642154799</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>4.0257940557967657</v>
+        <v>3.830998793021553</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>4.8216978559614709</v>
+        <v>4.523953990581294</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>5.537124271512031</v>
+        <v>5.148810240070123</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>5.2008362790700922</v>
+        <v>4.7928514694381388</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>5.5554654759798296</v>
+        <v>5.2054727845415307</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>6.3511432610965786</v>
+        <v>5.9711386322435516</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>6.2081239684837204</v>
+        <v>5.4077476891430836</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>6.4337703858083941</v>
+        <v>5.8854825875096486</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>5.8644927540530318</v>
+        <v>5.4254903664940137</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>6.0025187021723649</v>
+        <v>5.6453839503694176</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>5.5273876770102461</v>
+        <v>5.0246032468858806</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>5.7240594798387523</v>
+        <v>5.2914291052642426</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>1</v>
+        <v>5.7217714046548771</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>5.0485243690277493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>4.1210747771423364</v>
+        <v>3.9667650065989699</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>5.4747547232981262</v>
+        <v>5.0127893169865354</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>3.9678708986129978</v>
+        <v>3.887468931536405</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>4.726682684767642</v>
+        <v>4.2566279772807913</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>3.5336465541971931</v>
+        <v>3.278767395559548</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>4.8983231875051114</v>
+        <v>4.4475138081492709</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>4.0841059707438436</v>
+        <v>3.9788353091487969</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>4.0370779304899678</v>
+        <v>4.0567839350863766</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>4.0505528908968707</v>
+        <v>4.0211759982450772</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>4.8662052497837891</v>
+        <v>4.4624157699306366</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>4.365053100121143</v>
+        <v>4.1464628535020154</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>4.4114483513244576</v>
+        <v>4.072556021257995</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>3.6630572546109388</v>
+        <v>3.4562239642154799</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>4.0257940557967657</v>
+        <v>3.830998793021553</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>4.8216978559614709</v>
+        <v>4.523953990581294</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>5.537124271512031</v>
+        <v>5.148810240070123</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>5.2008362790700922</v>
+        <v>4.7928514694381388</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>5.5554654759798296</v>
+        <v>5.2054727845415307</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>6.3511432610965786</v>
+        <v>5.9711386322435516</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>6.2081239684837204</v>
+        <v>5.4077476891430836</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>6.4337703858083941</v>
+        <v>5.8854825875096486</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510">
-        <v>5.8644927540530318</v>
+        <v>5.4254903664940137</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>6.0025187021723649</v>
+        <v>5.6453839503694176</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>5.5273876770102461</v>
+        <v>5.0246032468858806</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513">
-        <v>5.7240594798387523</v>
+        <v>5.2914291052642426</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514">
-        <v>1</v>
+        <v>5.7217714046548771</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515">
-        <v>5.0485243690277493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>4.1210747771423364</v>
+        <v>3.9667650065989699</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>5.4747547232981262</v>
+        <v>5.0127893169865354</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518">
-        <v>3.9678708986129978</v>
+        <v>3.887468931536405</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519">
-        <v>4.726682684767642</v>
+        <v>4.2566279772807913</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>3.5336465541971931</v>
+        <v>3.278767395559548</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521">
-        <v>4.8983231875051114</v>
+        <v>4.4475138081492709</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522">
-        <v>4.0841059707438436</v>
+        <v>3.9788353091487969</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523">
-        <v>4.0370779304899678</v>
+        <v>4.0567839350863766</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524">
-        <v>4.0505528908968707</v>
+        <v>4.0211759982450772</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525">
-        <v>4.8662052497837891</v>
+        <v>4.4624157699306366</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526">
-        <v>4.365053100121143</v>
+        <v>4.1464628535020154</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527">
-        <v>4.4114483513244576</v>
+        <v>4.072556021257995</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528">
-        <v>3.6630572546109388</v>
+        <v>3.4562239642154799</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529">
-        <v>4.0257940557967657</v>
+        <v>3.830998793021553</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530">
-        <v>4.8216978559614709</v>
+        <v>4.523953990581294</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531">
-        <v>5.537124271512031</v>
+        <v>5.148810240070123</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532">
-        <v>5.2008362790700922</v>
+        <v>4.7928514694381388</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533">
-        <v>5.5554654759798296</v>
+        <v>5.2054727845415307</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534">
-        <v>6.3511432610965786</v>
+        <v>5.9711386322435516</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535">
-        <v>6.2081239684837204</v>
+        <v>5.4077476891430836</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536">
-        <v>6.4337703858083941</v>
+        <v>5.8854825875096486</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537">
-        <v>5.8644927540530318</v>
+        <v>5.4254903664940137</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538">
-        <v>6.0025187021723649</v>
+        <v>5.6453839503694176</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539">
-        <v>5.5273876770102461</v>
+        <v>5.0246032468858806</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540">
-        <v>5.7240594798387523</v>
+        <v>5.2914291052642426</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541">
-        <v>1</v>
+        <v>5.7217714046548771</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542">
-        <v>5.0485243690277493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543">
-        <v>4.1210747771423364</v>
+        <v>3.9667650065989699</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544">
-        <v>5.4747547232981262</v>
+        <v>5.0127893169865354</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545">
-        <v>3.9678708986129978</v>
+        <v>3.887468931536405</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546">
-        <v>4.726682684767642</v>
+        <v>4.2566279772807913</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547">
-        <v>3.5336465541971931</v>
+        <v>3.278767395559548</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548">
-        <v>4.8983231875051114</v>
+        <v>4.4475138081492709</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549">
-        <v>4.0841059707438436</v>
+        <v>3.9788353091487969</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550">
-        <v>4.0370779304899678</v>
+        <v>4.0567839350863766</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551">
-        <v>4.0505528908968707</v>
+        <v>4.0211759982450772</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552">
-        <v>4.8662052497837891</v>
+        <v>4.4624157699306366</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553">
-        <v>4.365053100121143</v>
+        <v>4.1464628535020154</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554">
-        <v>4.4114483513244576</v>
+        <v>4.072556021257995</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555">
-        <v>3.6630572546109388</v>
+        <v>3.4562239642154799</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556">
-        <v>4.0257940557967657</v>
+        <v>3.830998793021553</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557">
-        <v>4.8216978559614709</v>
+        <v>4.523953990581294</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558">
-        <v>5.537124271512031</v>
+        <v>5.148810240070123</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559">
-        <v>5.2008362790700922</v>
+        <v>4.7928514694381388</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560">
-        <v>5.5554654759798296</v>
+        <v>5.2054727845415307</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561">
-        <v>6.3511432610965786</v>
+        <v>5.9711386322435516</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562">
-        <v>6.2081239684837204</v>
+        <v>5.4077476891430836</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563">
-        <v>6.4337703858083941</v>
+        <v>5.8854825875096486</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564">
-        <v>5.8644927540530318</v>
+        <v>5.4254903664940137</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565">
-        <v>6.0025187021723649</v>
+        <v>5.6453839503694176</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566">
-        <v>5.5273876770102461</v>
+        <v>5.0246032468858806</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567">
-        <v>5.7240594798387523</v>
+        <v>5.2914291052642426</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568">
-        <v>1</v>
+        <v>5.7217714046548771</v>
       </c>
     </row>
   </sheetData>

--- a/Thesis/z1.xlsx
+++ b/Thesis/z1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\college_works\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BF7AEC-4978-45B0-B8B0-D7336F31F500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5365E3-3943-4925-AAD7-21FF362B1902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,947 +437,947 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>8.8290388253517066E-2</v>
+        <v>8.5134936294222641E-2</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.20756702200192709</v>
+        <v>0.21697804653540939</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.1080693166157583</v>
+        <v>0.11567667295167321</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.1992070346116783</v>
+        <v>0.19603435336458711</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.31770160034265071</v>
+        <v>0.31686943110364241</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.1732005308873987</v>
+        <v>0.1710962063609871</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.20284822031319369</v>
+        <v>0.1983057839394817</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.173961880390471</v>
+        <v>0.16977145369109631</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.17471392049876211</v>
+        <v>0.16560686429844951</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.25926313027002079</v>
+        <v>0.2448916101064938</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.20284816144747961</v>
+        <v>0.20656349350156469</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.2293303770842352</v>
+        <v>0.21144894862712449</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.18260073284274969</v>
+        <v>0.18151020728872189</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.20687398210351671</v>
+        <v>0.20686897011790659</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.29919075257392458</v>
+        <v>0.29793282471148641</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.26650330939427819</v>
+        <v>0.26694204494847851</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.17246671472717859</v>
+        <v>0.17069148862732661</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.1374369778902777</v>
+        <v>0.1465026664951124</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.18702268701711439</v>
+        <v>0.18385880894272849</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.20681008746620891</v>
+        <v>0.15688628554712389</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>9.6381330463218867E-2</v>
+        <v>9.1368780923104659E-2</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.1548313059869483</v>
+        <v>0.1442858168298449</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.1440045436681027</v>
+        <v>0.1424671467793083</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.1616719472840086</v>
+        <v>0.16289794842611499</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.13820855916676161</v>
+        <v>0.13226962529993619</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.1905035523236899</v>
+        <v>0.19064000713487569</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>0.13328523973525189</v>
+        <v>0.1255662462189874</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0.18781714073490061</v>
+        <v>0.17074516826154421</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>-3.6059131962222601E-2</v>
+        <v>1.0017498276273309E-3</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>-6.1390830767541822E-2</v>
+        <v>-4.0070409114804632E-2</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>-2.0949991952631749E-2</v>
+        <v>-3.267476466808996E-2</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>5.5504445932758627E-2</v>
+        <v>6.3010381764817713E-2</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>-7.3139640403448891E-2</v>
+        <v>-7.2286924728302088E-2</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>4.118508887789174E-2</v>
+        <v>3.7337463718193097E-2</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>-5.4744586763011437E-2</v>
+        <v>-5.8647742450201629E-2</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>1.9965844149368629E-2</v>
+        <v>1.455613170642832E-3</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>-9.028327730932767E-2</v>
+        <v>-0.1097304971252943</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>-0.10582537647209431</v>
+        <v>-0.1048296503910652</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>-4.5082999907723881E-3</v>
+        <v>-3.9539598089481182E-2</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>-5.2762791030035406E-3</v>
+        <v>-4.012365698086098E-3</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>-5.1208440745661013E-2</v>
+        <v>-4.2725203014976357E-2</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>-8.7716387615030644E-2</v>
+        <v>-8.6699452960863066E-2</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>2.937068854981098E-2</v>
+        <v>2.1388103087642951E-2</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>-8.0164460495988576E-2</v>
+        <v>-7.4655043989364067E-2</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>-5.7181294160370683E-2</v>
+        <v>-3.5479889516305423E-2</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>-5.1217146490783433E-2</v>
+        <v>-5.6874728713607832E-2</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>4.885266170815511E-2</v>
+        <v>-2.617443679867483E-2</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>-5.9681974086363498E-2</v>
+        <v>-6.734833959991704E-2</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>-2.9273537282504748E-3</v>
+        <v>-7.4527165693974683E-3</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>-3.6334327094247968E-4</v>
+        <v>1.2457328103390519E-4</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>-3.1797725326037703E-2</v>
+        <v>-1.577609143518284E-2</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>-1.9028893940542399E-2</v>
+        <v>-1.416361766328453E-2</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>6.9756473406856821E-5</v>
+        <v>1.055997982732056E-4</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>-9.5998760244660142E-2</v>
+        <v>-0.10331017795125209</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>4.341290825237927E-2</v>
+        <v>2.454795027794222E-2</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>-0.19752336301033549</v>
+        <v>-0.15315955613942989</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>-0.30924337998228318</v>
+        <v>-0.30439758918588211</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>-0.28090962314198997</v>
+        <v>-0.29005392683759229</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>-0.17683894655528981</v>
+        <v>-0.1757391618060867</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>-0.30971496125569509</v>
+        <v>-0.3074268003799604</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>-0.20883339354944611</v>
+        <v>-0.2116428742564235</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>-0.31454522089946851</v>
+        <v>-0.3206595723325032</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>-0.44417496775735971</v>
+        <v>-0.45602031774357338</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>-0.41420712746615029</v>
+        <v>-0.44785992628766258</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>-0.38718624269524188</v>
+        <v>-0.38731863611914003</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>-0.31015355987530591</v>
+        <v>-0.33774917477158861</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>-0.40371663788678608</v>
+        <v>-0.4020363301143508</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>-0.28116418184245978</v>
+        <v>-0.2756491963358545</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>-0.26226140217337512</v>
+        <v>-0.26911612327565382</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>-0.27703328337075028</v>
+        <v>-0.2781423108373387</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>-0.43058983212701868</v>
+        <v>-0.41724246363931888</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>-0.32893903719069129</v>
+        <v>-0.31851016973414492</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>-0.2492075985301723</v>
+        <v>-0.25202796864684129</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>-0.18291339276985349</v>
+        <v>-0.26399566117950451</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>-0.31460925448083771</v>
+        <v>-0.32191878362511228</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>-0.224412708220076</v>
+        <v>-0.23549312243975731</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>-0.16468785371423919</v>
+        <v>-0.16917043764452111</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>-0.25001901185923248</v>
+        <v>-0.24774869786768919</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>-0.29574909402045257</v>
+        <v>-0.31329433190871292</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>-0.18603476366454669</v>
+        <v>-0.18597222901839111</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>-0.27030460047630839</v>
+        <v>-0.27833311596846211</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>-0.27637995528786052</v>
+        <v>-0.30960536354692147</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>-0.1960783522029203</v>
+        <v>-0.16008026989637289</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>-0.55922760160273755</v>
+        <v>-0.54977850418994834</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>-0.82432530759779188</v>
+        <v>-0.82439355130934389</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>-0.45014542622147391</v>
+        <v>-0.44613881131734878</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>-0.52299230864504676</v>
+        <v>-0.52361033183516348</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>-0.30795742215901017</v>
+        <v>-0.3191407150958544</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>-0.49882881599815437</v>
+        <v>-0.50152723791413212</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>-1.027502063180761</v>
+        <v>-1.03771305454634</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>-1.157480933746448</v>
+        <v>-1.187621926068712</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>-1.040136676316896</v>
+        <v>-1.036140666257868</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>-0.67642997548697315</v>
+        <v>-0.71770706979634058</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>-0.86740176298780147</v>
+        <v>-0.85535070411269076</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>-0.60765279587036369</v>
+        <v>-0.59821286663628914</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>-0.50465726138649547</v>
+        <v>-0.49782327117339809</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>-0.7925142368940219</v>
+        <v>-0.8009083946195632</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>-0.87406773488466905</v>
+        <v>-0.87342281858600379</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>-0.44919123950473322</v>
+        <v>-0.43188683065139638</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>-0.33925204433752282</v>
+        <v>-0.33288672838265848</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>-0.38372995851581532</v>
+        <v>-0.47414717751676899</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>-0.30488114247843567</v>
+        <v>-0.31035936706872319</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>-0.31529273085714288</v>
+        <v>-0.32662251166206813</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>-0.17943263851156649</v>
+        <v>-0.19099510020672719</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>-0.24307571983676779</v>
+        <v>-0.24292106612437989</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>-0.17467011729128989</v>
+        <v>-0.18509230683315581</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>-7.6518487027556509E-2</v>
+        <v>-6.7117553092808993E-2</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>-0.21055589505564509</v>
+        <v>-0.21998289011844879</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>-0.30810222954159372</v>
+        <v>-0.33967003094218368</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>-9.3634826062696797E-2</v>
+        <v>-5.6951706776926563E-2</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>-0.33171533352926957</v>
+        <v>-0.31785590924656998</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>-0.20953513356840031</v>
+        <v>-0.21690209600902469</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>-0.1799392482331077</v>
+        <v>-0.18374246471374331</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>-0.25858018310346648</v>
+        <v>-0.25828908592106331</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>-0.1945395969758395</v>
+        <v>-0.19843340445913271</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>-0.26563389201669912</v>
+        <v>-0.26948096959129042</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>-0.34517393084089121</v>
+        <v>-0.35328665977473028</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>-0.3031580107603794</v>
+        <v>-0.32233669155840261</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>-0.3823709962353592</v>
+        <v>-0.37534064215218238</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>-0.34208862209270807</v>
+        <v>-0.34982223529939438</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>-0.39499455295073421</v>
+        <v>-0.40298132142449927</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>-0.22717993363992101</v>
+        <v>-0.22507143134545149</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>-0.22470678324993329</v>
+        <v>-0.23013281955013579</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>-0.26482299967701439</v>
+        <v>-0.25602149186945461</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>-0.27593785113329039</v>
+        <v>-0.28071480217984662</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>-0.19221746797012759</v>
+        <v>-0.17606422777355099</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>-0.1063836484985638</v>
+        <v>-0.10678917407243591</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>-9.6524742826217924E-2</v>
+        <v>-0.17396253566408981</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>-0.20441132395810169</v>
+        <v>-0.21195681269834291</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>-0.14852037608072141</v>
+        <v>-0.16238758275376239</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>-9.4404958431914265E-2</v>
+        <v>-0.1061993385433601</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>-0.1663061033012064</v>
+        <v>-0.16038965150229781</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>-0.17472995328128929</v>
+        <v>-0.19185513956622419</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>-5.0386595068417278E-2</v>
+        <v>-4.7796833824992641E-2</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>-0.14563232117393959</v>
+        <v>-0.16060343319793671</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>-0.22252275025701521</v>
+        <v>-0.25023618914745061</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>3.9681161116486237E-2</v>
+        <v>9.201374480949237E-2</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>6.482848157127441E-2</v>
+        <v>6.5674554265896204E-2</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>-1.3764864576175021E-2</v>
+        <v>-9.2963470314760873E-3</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>8.7786926008147692E-2</v>
+        <v>8.9201904630915124E-2</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>3.681247336489088E-2</v>
+        <v>3.2403807444417961E-2</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>0.1695248027978937</v>
+        <v>0.15810352676411721</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>-4.328543967782256E-4</v>
+        <v>-5.6921022106411143E-5</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>3.4059737426435407E-2</v>
+        <v>2.232803241061352E-2</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>8.893146136993163E-2</v>
+        <v>7.5735762179753002E-2</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>-2.328599113754061E-2</v>
+        <v>-2.4968570655127101E-2</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>5.9402682870644249E-2</v>
+        <v>3.4883945941196121E-2</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>0.10879220017805361</v>
+        <v>9.8776108712008329E-2</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>5.041206748536603E-2</v>
+        <v>5.1919920358712963E-2</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>0.1023922999482763</v>
+        <v>9.6362518975707134E-2</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>0.10925434423495101</v>
+        <v>0.1083850505071326</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>9.9565696899362975E-3</v>
+        <v>9.9501122906644687E-3</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>1.6210784255814108E-2</v>
+        <v>3.1265967470244183E-2</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>3.7496845641743978E-2</v>
+        <v>3.8393735838511682E-2</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>5.9355151723315097E-2</v>
+        <v>-1.8565889671071811E-2</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>-7.4713874624564247E-2</v>
+        <v>-8.6424248065382597E-2</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>1.434412080377552E-2</v>
+        <v>-8.2969203955350016E-4</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>1.1465939650616021E-2</v>
+        <v>2.5800585448888701E-2</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>1.3981814865493641E-2</v>
+        <v>1.5095490396964119E-2</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>6.8832550674209236E-2</v>
+        <v>5.4195851933294931E-2</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>7.2586767279854025E-2</v>
+        <v>9.075224137553764E-2</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>1.9836078511220299E-2</v>
+        <v>9.403495023594147E-3</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>6.1165390485058868E-2</v>
+        <v>5.5647413268196118E-2</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
@@ -1517,812 +1517,812 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>-0.99692118150600928</v>
+        <v>-0.99677408605821927</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>0.40534217061041022</v>
+        <v>0.3447795022769361</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>-0.43575749562274613</v>
+        <v>-0.43014504063472159</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>-0.70160930915388997</v>
+        <v>-0.70371029948982744</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>1.5047378779013659E-2</v>
+        <v>6.799177228252273E-3</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>-0.5195928487108219</v>
+        <v>-0.51520467744436083</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>-0.33737315319864858</v>
+        <v>-0.33375632976007891</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>-0.35595119262242381</v>
+        <v>-0.33780696350355449</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>-0.48418022190462429</v>
+        <v>-0.44920516490923618</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>-0.28045160947563491</v>
+        <v>-0.30448414929717849</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>-0.39344095201284801</v>
+        <v>-0.34344483343588927</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>-0.5293841091886089</v>
+        <v>-0.53362032864455933</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>-0.55945969793099981</v>
+        <v>-0.56622728247741461</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>-0.67960778953262757</v>
+        <v>-0.6823540698664019</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>-0.73236126364817977</v>
+        <v>-0.73669658719673414</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>-0.21470492679355141</v>
+        <v>-0.21921715557947111</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>-0.25195946617822867</v>
+        <v>-0.29664949172706678</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>-0.45676531806239012</v>
+        <v>-0.45606195632991581</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>-0.69235857335887752</v>
+        <v>-0.60829626674225767</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>-0.31625625143546943</v>
+        <v>-0.31489378296380582</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>-0.25991014132519252</v>
+        <v>-0.23106149961354791</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>1.5650242239988881E-2</v>
+        <v>1.398021446545129E-2</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>-0.34242950614974182</v>
+        <v>-0.3558905848305195</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>0.1929738620992737</v>
+        <v>0.2152033856599275</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>-0.38484726925976098</v>
+        <v>-0.39510277807475103</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>-4.2753737376204942E-2</v>
+        <v>-2.3943164823170458E-2</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>-0.7249256606689094</v>
+        <v>-0.70605701323650039</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>-0.9949482781731851</v>
+        <v>-0.99519248547761996</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>0.58428929648697947</v>
+        <v>0.44505271713520778</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>-4.4057761521943517E-2</v>
+        <v>-1.159766241564683E-3</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>-0.37196948769486538</v>
+        <v>-0.39993594428910523</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>0.41378542681228048</v>
+        <v>0.38420244014230381</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>-0.44477099368736428</v>
+        <v>-0.4419963128723372</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>0.33627700668605448</v>
+        <v>0.34050121669876221</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>0.1030901361525246</v>
+        <v>0.16520355990882571</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>0.59803380480918422</v>
+        <v>0.69596876183186307</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>0.81288773765079592</v>
+        <v>0.78096988674076817</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>4.3154084772487417E-2</v>
+        <v>0.18523453911109999</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>6.3389551867108401E-2</v>
+        <v>4.7734823071100142E-2</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>0.21613218199300741</v>
+        <v>0.1561555076985929</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>0.23651986478142481</v>
+        <v>0.21129583334333649</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>-0.31902694320507302</v>
+        <v>-0.30578934664065399</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>0.44884880723581388</v>
+        <v>0.39370409418665009</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>0.71423306864521696</v>
+        <v>0.54395818485165748</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>0.48832449107954062</v>
+        <v>0.49984960891683122</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>-4.2242828657258619E-2</v>
+        <v>0.29554064123771528</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>0.55206283065701323</v>
+        <v>0.56648806928741391</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>0.51530877761016014</v>
+        <v>0.52883206468191069</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>0.69102157579332446</v>
+        <v>0.6752822044565463</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>0.4595130153754754</v>
+        <v>0.34952221345962398</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>0.98965284857177083</v>
+        <v>0.93782101495651604</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>0.73931232105462419</v>
+        <v>0.71326810010800212</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>1.1393706944661339</v>
+        <v>1.161774096814449</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>-0.20386145564557581</v>
+        <v>-0.1540811898287015</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>-0.99865802256272795</v>
+        <v>-0.99873081489542925</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>-0.52516435655286475</v>
+        <v>-0.53700670959462626</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>-0.46383072038364942</v>
+        <v>-0.45174638923301202</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>-0.73114729505103737</v>
+        <v>-0.73526617393644178</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>-0.55312023389614362</v>
+        <v>-0.56369611683884124</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>-0.76194731601627486</v>
+        <v>-0.76279728214157205</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>-0.47453355841006889</v>
+        <v>-0.4725115508809955</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>-0.36527034794169277</v>
+        <v>-0.3546606844735084</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>-0.33979352120243939</v>
+        <v>-0.28251764967202903</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>-0.48440062532640621</v>
+        <v>-0.49201886419903951</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>-0.51097523899195152</v>
+        <v>-0.47433018902725471</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>-0.46270655178428938</v>
+        <v>-0.4724689296229122</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>-0.66393976910436114</v>
+        <v>-0.6747929131516528</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>-0.7458614784411044</v>
+        <v>-0.74453693164932577</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>-0.72269227950346115</v>
+        <v>-0.7255248030943251</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>-0.32043721243108703</v>
+        <v>-0.35561890311947619</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>-0.29827974554384329</v>
+        <v>-0.33298067515814928</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>-0.57657213432785048</v>
+        <v>-0.57889632620165066</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>-0.61810486517736285</v>
+        <v>-0.50270579432129314</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>-0.26801527698948319</v>
+        <v>-0.265152356316601</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>-0.34433018965896939</v>
+        <v>-0.32764588393961008</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>-0.18826527095965989</v>
+        <v>-0.18181768356265959</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>-0.38786046954062581</v>
+        <v>-0.4004050686747479</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>-0.14816416581523309</v>
+        <v>-0.10681195205018081</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>-0.35121290653951492</v>
+        <v>-0.36108566305739492</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>-0.45406957648326229</v>
+        <v>-0.44956436000506661</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>-0.33964864014325058</v>
+        <v>-0.27955218696616391</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>-0.99461623378027619</v>
+        <v>-0.99476479110755989</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>4.4396570814987957</v>
+        <v>4.250671493519234</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>18.327655855569869</v>
+        <v>18.170391791771181</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>4.6690427381978132</v>
+        <v>4.5322460316325888</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>3.167130109310385</v>
+        <v>3.0978143013902781</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>2.939752421251157</v>
+        <v>3.0275626638152162</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>2.7970322167168011</v>
+        <v>2.7694825849184381</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>11.79972729135662</v>
+        <v>11.837759640201121</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>21.243276995995028</v>
+        <v>22.249074779267168</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>26.932250512092718</v>
+        <v>26.283977132197951</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>14.56324712289506</v>
+        <v>15.977170712554869</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>19.50292368296633</v>
+        <v>18.683280594138349</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>8.6331522554692484</v>
+        <v>8.2522827844464821</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>1.656129166004483</v>
+        <v>1.564813541927224</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>4.9201703691332312</v>
+        <v>4.9508694396241024</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>11.225412496954631</v>
+        <v>11.0417068062468</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>6.2735851820186213</v>
+        <v>5.8008112215749303</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>3.9651354853970431</v>
+        <v>3.7972161594642642</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>83.986763039794255</v>
+        <v>108.17123521330269</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>25.027136851982959</v>
+        <v>24.961369585034671</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>8.0811788962995372</v>
+        <v>8.2959874658456236</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>7.2350362655040783</v>
+        <v>7.4942926903661897</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>4.7487174176559783</v>
+        <v>4.6564729673037686</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>3.7372640884142698</v>
+        <v>3.8671346639300901</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>1.140901850656844</v>
+        <v>1.0319649637055599</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>4.155739866776619</v>
+        <v>4.2331827382057874</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>99.397224705437338</v>
+        <v>107.7929548146079</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>-0.99848092939118716</v>
+        <v>-0.99854418304254255</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>0.32684659694873819</v>
+        <v>0.25670062883234201</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>-0.20462539365717899</v>
+        <v>-0.1908957771123137</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>-0.36487482474188221</v>
+        <v>-0.36417554467589508</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>-0.32477012273211198</v>
+        <v>-0.33827398482853371</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>-0.53556864982347618</v>
+        <v>-0.53461586385403737</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>-5.2785557453787131E-4</v>
+        <v>-2.0135833608885558E-3</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>9.4780375150982712E-3</v>
+        <v>1.729263582842748E-2</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>-4.6739660746931123E-2</v>
+        <v>-5.5282295255416306E-4</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>-3.1279597286189717E-2</v>
+        <v>-6.5510989727244812E-2</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>-1.0076667610416E-2</v>
+        <v>-3.1524093636012482E-3</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>0.13142867280436701</v>
+        <v>0.14353118170337339</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>-0.40964897403486228</v>
+        <v>-0.42217542507769801</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>-0.52421792800798972</v>
+        <v>-0.52373714829842788</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>-0.41394862317335868</v>
+        <v>-0.43891845560225512</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>-2.1904599816923252E-2</v>
+        <v>-2.0136856586866741E-2</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>-0.20540775551493101</v>
+        <v>-0.26205016817587728</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>-0.48882392246539408</v>
+        <v>-0.49652749055994999</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>-0.31510225844968831</v>
+        <v>-0.1018638560973875</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>-6.752029641825039E-3</v>
+        <v>-1.134932674762727E-3</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>-0.1713217255215522</v>
+        <v>-0.14107233580875669</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>-0.23037026027111659</v>
+        <v>-0.20118049201674529</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>-0.1861735985359777</v>
+        <v>-0.21532885603302979</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>0.14590581769676381</v>
+        <v>0.20741447322869561</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>-0.30193871286360408</v>
+        <v>-0.32015586617699932</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>-0.35408744904582667</v>
+        <v>-0.32897382765061622</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>1.264101398175292</v>
+        <v>1.434845942354251</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>-0.99654888544630404</v>
+        <v>-0.99696316093864601</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>-0.63526909426051459</v>
+        <v>-0.64012318291777426</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>-1.9833086238433221E-2</v>
+        <v>-4.1734124833722228E-2</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>-0.63927178733804202</v>
+        <v>-0.64562657089073161</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>-0.35368433976329888</v>
+        <v>-0.35383268001692048</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>-0.86806778607676427</v>
+        <v>-0.8621043136329718</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>-0.30445435690438072</v>
+        <v>-0.31651397420117011</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>-0.58792914918308203</v>
+        <v>-0.57459910025050576</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>-0.52521316920856997</v>
+        <v>-0.50155841207338736</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>-0.33162209907387569</v>
+        <v>-0.33821719285760909</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>-0.25854619448224958</v>
+        <v>-0.1875118319072204</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>-0.51643188058102818</v>
+        <v>-0.50088015411344367</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>-0.41609929731774531</v>
+        <v>-0.42914889414751428</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>-0.71903016582431079</v>
+        <v>-0.71578619360530138</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>-0.63498279859490214</v>
+        <v>-0.63903828143992936</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>-0.17084624437425741</v>
+        <v>-0.17882968722297651</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>0.18845765367689171</v>
+        <v>9.3609603718344064E-2</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>-8.3634669654471222E-2</v>
+        <v>-0.1022951350091434</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>4.8341472347684752E-2</v>
+        <v>0.45289934439492818</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>1.169645744099314</v>
+        <v>1.2209250005375021</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>0.29517172046330059</v>
+        <v>0.35868514153127612</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>0.77975329826536188</v>
+        <v>0.66779403358331468</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>0.41135588908055859</v>
+        <v>0.38911846468681027</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>0.18962195176899099</v>
+        <v>0.26030488194162138</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>-4.7285758227446323E-2</v>
+        <v>-0.13533145152995599</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>0.25175823193675001</v>
+        <v>0.28176848108163288</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>-1.957809999363173E-3</v>
+        <v>1.011932809308749E-3</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.3">
@@ -2332,132 +2332,132 @@
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>3.9667650065989699</v>
+        <v>3.9369611466870338</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>5.0127893169865354</v>
+        <v>5.0181220609324217</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>3.887468931536405</v>
+        <v>3.8726853086496531</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>4.2566279772807913</v>
+        <v>4.2412192112172216</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>3.278767395559548</v>
+        <v>3.2883862380457591</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>4.4475138081492709</v>
+        <v>4.4379225926602492</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>3.9788353091487969</v>
+        <v>3.9920143384598412</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>4.0567839350863766</v>
+        <v>4.0990347863940482</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>4.0211759982450772</v>
+        <v>4.0009766711518608</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>4.4624157699306366</v>
+        <v>4.5258007723198652</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>4.1464628535020154</v>
+        <v>4.141531428784031</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>4.072556021257995</v>
+        <v>4.0449370384293983</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>3.4562239642154799</v>
+        <v>3.4510732925386578</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>3.830998793021553</v>
+        <v>3.8198472165985891</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>4.523953990581294</v>
+        <v>4.5087193525406573</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>5.148810240070123</v>
+        <v>5.0706925789108901</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>4.7928514694381388</v>
+        <v>4.7745161819757218</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>5.2054727845415307</v>
+        <v>5.499373377981887</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>5.9711386322435516</v>
+        <v>5.9718745063126706</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>5.4077476891430836</v>
+        <v>5.4336039816010686</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>5.8854825875096486</v>
+        <v>5.8729061850355144</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>5.4254903664940137</v>
+        <v>5.397912195307943</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>5.6453839503694176</v>
+        <v>5.6815248686998903</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>5.0246032468858806</v>
+        <v>4.9782148743070236</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>5.2914291052642426</v>
+        <v>5.3012898552529517</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>5.7217714046548771</v>
+        <v>5.7670959038377712</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.3">
@@ -2467,132 +2467,132 @@
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>3.9667650065989699</v>
+        <v>3.9369611466870338</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>5.0127893169865354</v>
+        <v>5.0181220609324217</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>3.887468931536405</v>
+        <v>3.8726853086496531</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>4.2566279772807913</v>
+        <v>4.2412192112172216</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>3.278767395559548</v>
+        <v>3.2883862380457591</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>4.4475138081492709</v>
+        <v>4.4379225926602492</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>3.9788353091487969</v>
+        <v>3.9920143384598412</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>4.0567839350863766</v>
+        <v>4.0990347863940482</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>4.0211759982450772</v>
+        <v>4.0009766711518608</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>4.4624157699306366</v>
+        <v>4.5258007723198652</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>4.1464628535020154</v>
+        <v>4.141531428784031</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>4.072556021257995</v>
+        <v>4.0449370384293983</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>3.4562239642154799</v>
+        <v>3.4510732925386578</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>3.830998793021553</v>
+        <v>3.8198472165985891</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>4.523953990581294</v>
+        <v>4.5087193525406573</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>5.148810240070123</v>
+        <v>5.0706925789108901</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>4.7928514694381388</v>
+        <v>4.7745161819757218</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>5.2054727845415307</v>
+        <v>5.499373377981887</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>5.9711386322435516</v>
+        <v>5.9718745063126706</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>5.4077476891430836</v>
+        <v>5.4336039816010686</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>5.8854825875096486</v>
+        <v>5.8729061850355144</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>5.4254903664940137</v>
+        <v>5.397912195307943</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>5.6453839503694176</v>
+        <v>5.6815248686998903</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>5.0246032468858806</v>
+        <v>4.9782148743070236</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>5.2914291052642426</v>
+        <v>5.3012898552529517</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>5.7217714046548771</v>
+        <v>5.7670959038377712</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.3">
@@ -2602,132 +2602,132 @@
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>3.9667650065989699</v>
+        <v>3.9369611466870338</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>5.0127893169865354</v>
+        <v>5.0181220609324217</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>3.887468931536405</v>
+        <v>3.8726853086496531</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>4.2566279772807913</v>
+        <v>4.2412192112172216</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>3.278767395559548</v>
+        <v>3.2883862380457591</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>4.4475138081492709</v>
+        <v>4.4379225926602492</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>3.9788353091487969</v>
+        <v>3.9920143384598412</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>4.0567839350863766</v>
+        <v>4.0990347863940482</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>4.0211759982450772</v>
+        <v>4.0009766711518608</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>4.4624157699306366</v>
+        <v>4.5258007723198652</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>4.1464628535020154</v>
+        <v>4.141531428784031</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>4.072556021257995</v>
+        <v>4.0449370384293983</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>3.4562239642154799</v>
+        <v>3.4510732925386578</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>3.830998793021553</v>
+        <v>3.8198472165985891</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>4.523953990581294</v>
+        <v>4.5087193525406573</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>5.148810240070123</v>
+        <v>5.0706925789108901</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>4.7928514694381388</v>
+        <v>4.7745161819757218</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>5.2054727845415307</v>
+        <v>5.499373377981887</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>5.9711386322435516</v>
+        <v>5.9718745063126706</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>5.4077476891430836</v>
+        <v>5.4336039816010686</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>5.8854825875096486</v>
+        <v>5.8729061850355144</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>5.4254903664940137</v>
+        <v>5.397912195307943</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>5.6453839503694176</v>
+        <v>5.6815248686998903</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>5.0246032468858806</v>
+        <v>4.9782148743070236</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>5.2914291052642426</v>
+        <v>5.3012898552529517</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>5.7217714046548771</v>
+        <v>5.7670959038377712</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.3">
@@ -2737,132 +2737,132 @@
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>3.9667650065989699</v>
+        <v>3.9369611466870338</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>5.0127893169865354</v>
+        <v>5.0181220609324217</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>3.887468931536405</v>
+        <v>3.8726853086496531</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>4.2566279772807913</v>
+        <v>4.2412192112172216</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>3.278767395559548</v>
+        <v>3.2883862380457591</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>4.4475138081492709</v>
+        <v>4.4379225926602492</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>3.9788353091487969</v>
+        <v>3.9920143384598412</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>4.0567839350863766</v>
+        <v>4.0990347863940482</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>4.0211759982450772</v>
+        <v>4.0009766711518608</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>4.4624157699306366</v>
+        <v>4.5258007723198652</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>4.1464628535020154</v>
+        <v>4.141531428784031</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>4.072556021257995</v>
+        <v>4.0449370384293983</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>3.4562239642154799</v>
+        <v>3.4510732925386578</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>3.830998793021553</v>
+        <v>3.8198472165985891</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>4.523953990581294</v>
+        <v>4.5087193525406573</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>5.148810240070123</v>
+        <v>5.0706925789108901</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>4.7928514694381388</v>
+        <v>4.7745161819757218</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>5.2054727845415307</v>
+        <v>5.499373377981887</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>5.9711386322435516</v>
+        <v>5.9718745063126706</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>5.4077476891430836</v>
+        <v>5.4336039816010686</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>5.8854825875096486</v>
+        <v>5.8729061850355144</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>5.4254903664940137</v>
+        <v>5.397912195307943</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>5.6453839503694176</v>
+        <v>5.6815248686998903</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>5.0246032468858806</v>
+        <v>4.9782148743070236</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>5.2914291052642426</v>
+        <v>5.3012898552529517</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>5.7217714046548771</v>
+        <v>5.7670959038377712</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.3">
@@ -2872,132 +2872,132 @@
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>3.9667650065989699</v>
+        <v>3.9369611466870338</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>5.0127893169865354</v>
+        <v>5.0181220609324217</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>3.887468931536405</v>
+        <v>3.8726853086496531</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>4.2566279772807913</v>
+        <v>4.2412192112172216</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>3.278767395559548</v>
+        <v>3.2883862380457591</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>4.4475138081492709</v>
+        <v>4.4379225926602492</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>3.9788353091487969</v>
+        <v>3.9920143384598412</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>4.0567839350863766</v>
+        <v>4.0990347863940482</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>4.0211759982450772</v>
+        <v>4.0009766711518608</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>4.4624157699306366</v>
+        <v>4.5258007723198652</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>4.1464628535020154</v>
+        <v>4.141531428784031</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>4.072556021257995</v>
+        <v>4.0449370384293983</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>3.4562239642154799</v>
+        <v>3.4510732925386578</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>3.830998793021553</v>
+        <v>3.8198472165985891</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>4.523953990581294</v>
+        <v>4.5087193525406573</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>5.148810240070123</v>
+        <v>5.0706925789108901</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>4.7928514694381388</v>
+        <v>4.7745161819757218</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>5.2054727845415307</v>
+        <v>5.499373377981887</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>5.9711386322435516</v>
+        <v>5.9718745063126706</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>5.4077476891430836</v>
+        <v>5.4336039816010686</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>5.8854825875096486</v>
+        <v>5.8729061850355144</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510">
-        <v>5.4254903664940137</v>
+        <v>5.397912195307943</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>5.6453839503694176</v>
+        <v>5.6815248686998903</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>5.0246032468858806</v>
+        <v>4.9782148743070236</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513">
-        <v>5.2914291052642426</v>
+        <v>5.3012898552529517</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514">
-        <v>5.7217714046548771</v>
+        <v>5.7670959038377712</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.3">
@@ -3007,132 +3007,132 @@
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>3.9667650065989699</v>
+        <v>3.9369611466870338</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>5.0127893169865354</v>
+        <v>5.0181220609324217</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518">
-        <v>3.887468931536405</v>
+        <v>3.8726853086496531</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519">
-        <v>4.2566279772807913</v>
+        <v>4.2412192112172216</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>3.278767395559548</v>
+        <v>3.2883862380457591</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521">
-        <v>4.4475138081492709</v>
+        <v>4.4379225926602492</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522">
-        <v>3.9788353091487969</v>
+        <v>3.9920143384598412</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523">
-        <v>4.0567839350863766</v>
+        <v>4.0990347863940482</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524">
-        <v>4.0211759982450772</v>
+        <v>4.0009766711518608</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525">
-        <v>4.4624157699306366</v>
+        <v>4.5258007723198652</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526">
-        <v>4.1464628535020154</v>
+        <v>4.141531428784031</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527">
-        <v>4.072556021257995</v>
+        <v>4.0449370384293983</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528">
-        <v>3.4562239642154799</v>
+        <v>3.4510732925386578</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529">
-        <v>3.830998793021553</v>
+        <v>3.8198472165985891</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530">
-        <v>4.523953990581294</v>
+        <v>4.5087193525406573</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531">
-        <v>5.148810240070123</v>
+        <v>5.0706925789108901</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532">
-        <v>4.7928514694381388</v>
+        <v>4.7745161819757218</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533">
-        <v>5.2054727845415307</v>
+        <v>5.499373377981887</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534">
-        <v>5.9711386322435516</v>
+        <v>5.9718745063126706</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535">
-        <v>5.4077476891430836</v>
+        <v>5.4336039816010686</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536">
-        <v>5.8854825875096486</v>
+        <v>5.8729061850355144</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537">
-        <v>5.4254903664940137</v>
+        <v>5.397912195307943</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538">
-        <v>5.6453839503694176</v>
+        <v>5.6815248686998903</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539">
-        <v>5.0246032468858806</v>
+        <v>4.9782148743070236</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540">
-        <v>5.2914291052642426</v>
+        <v>5.3012898552529517</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541">
-        <v>5.7217714046548771</v>
+        <v>5.7670959038377712</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.3">
@@ -3142,132 +3142,132 @@
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543">
-        <v>3.9667650065989699</v>
+        <v>3.9369611466870338</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544">
-        <v>5.0127893169865354</v>
+        <v>5.0181220609324217</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545">
-        <v>3.887468931536405</v>
+        <v>3.8726853086496531</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546">
-        <v>4.2566279772807913</v>
+        <v>4.2412192112172216</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547">
-        <v>3.278767395559548</v>
+        <v>3.2883862380457591</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548">
-        <v>4.4475138081492709</v>
+        <v>4.4379225926602492</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549">
-        <v>3.9788353091487969</v>
+        <v>3.9920143384598412</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550">
-        <v>4.0567839350863766</v>
+        <v>4.0990347863940482</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551">
-        <v>4.0211759982450772</v>
+        <v>4.0009766711518608</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552">
-        <v>4.4624157699306366</v>
+        <v>4.5258007723198652</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553">
-        <v>4.1464628535020154</v>
+        <v>4.141531428784031</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554">
-        <v>4.072556021257995</v>
+        <v>4.0449370384293983</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555">
-        <v>3.4562239642154799</v>
+        <v>3.4510732925386578</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556">
-        <v>3.830998793021553</v>
+        <v>3.8198472165985891</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557">
-        <v>4.523953990581294</v>
+        <v>4.5087193525406573</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558">
-        <v>5.148810240070123</v>
+        <v>5.0706925789108901</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559">
-        <v>4.7928514694381388</v>
+        <v>4.7745161819757218</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560">
-        <v>5.2054727845415307</v>
+        <v>5.499373377981887</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561">
-        <v>5.9711386322435516</v>
+        <v>5.9718745063126706</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562">
-        <v>5.4077476891430836</v>
+        <v>5.4336039816010686</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563">
-        <v>5.8854825875096486</v>
+        <v>5.8729061850355144</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564">
-        <v>5.4254903664940137</v>
+        <v>5.397912195307943</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565">
-        <v>5.6453839503694176</v>
+        <v>5.6815248686998903</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566">
-        <v>5.0246032468858806</v>
+        <v>4.9782148743070236</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567">
-        <v>5.2914291052642426</v>
+        <v>5.3012898552529517</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568">
-        <v>5.7217714046548771</v>
+        <v>5.7670959038377712</v>
       </c>
     </row>
   </sheetData>
